--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0DF4C4-D5FD-4420-970D-F57417D8D439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734BB2CC-1DC8-434B-A6E3-C81D6AE88F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -21,13 +21,12 @@
     <sheet name="Change WC" sheetId="5" r:id="rId6"/>
     <sheet name="Income Statement" sheetId="8" r:id="rId7"/>
     <sheet name="Balance Sheet (Annual)" sheetId="9" r:id="rId8"/>
-    <sheet name="Balance Sheet (Quarterly)" sheetId="13" r:id="rId9"/>
-    <sheet name="Cash Flow Statement" sheetId="10" r:id="rId10"/>
-    <sheet name="Key Ratios" sheetId="11" r:id="rId11"/>
-    <sheet name="Debt Template" sheetId="12" r:id="rId12"/>
+    <sheet name="Cash Flow Statement" sheetId="10" r:id="rId9"/>
+    <sheet name="Key Ratios" sheetId="11" r:id="rId10"/>
+    <sheet name="Debt Template" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="11">'Debt Template'!$A$1:$C$21</definedName>
+    <definedName name="ExternalData_1" localSheetId="10">'Debt Template'!$A$1:$C$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="324">
   <si>
     <t>EPS</t>
   </si>
@@ -1007,15 +1006,6 @@
     <t>Asset Turnover</t>
   </si>
   <si>
-    <t xml:space="preserve">Coupon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maturity Date </t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Deffered Revenue</t>
   </si>
   <si>
@@ -1026,6 +1016,18 @@
   </si>
   <si>
     <t>FCFE Selected</t>
+  </si>
+  <si>
+    <t>Debt Analysis Source</t>
+  </si>
+  <si>
+    <t>Custom Spreadsheet</t>
+  </si>
+  <si>
+    <t>Current Debt</t>
+  </si>
+  <si>
+    <t>Average Cost of Debt</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1289,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1391,6 +1393,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -1684,10 +1690,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1701,9 +1707,11 @@
     <col min="20" max="20" width="10" customWidth="1"/>
     <col min="21" max="21" width="10.109375" customWidth="1"/>
     <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1714,8 +1722,14 @@
       <c r="O1" s="56" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X1" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
@@ -1727,8 +1741,28 @@
       <c r="S2" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z2">
+        <f>'Balance Sheet (Annual)'!A2</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>'Balance Sheet (Annual)'!B2</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>'Balance Sheet (Annual)'!C2</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>'Balance Sheet (Annual)'!D2</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>'Balance Sheet (Annual)'!E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="F3" s="8"/>
       <c r="G3" s="29"/>
       <c r="P3" s="37"/>
@@ -1744,8 +1778,31 @@
       <c r="V3" s="30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y3" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z3">
+        <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -1760,8 +1817,31 @@
         <f ca="1">-PV(U4,(S4-YEAR(NOW())),,((S4-YEAR(NOW()))*(T4*U4)))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Y4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4">
+        <f>VLOOKUP("Long-term debt",'Balance Sheet (Annual)'!$A$1:$Z$49,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>VLOOKUP("Long-term debt",'Balance Sheet (Annual)'!$A$1:$Z$49,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>VLOOKUP("Long-term debt",'Balance Sheet (Annual)'!$A$1:$Z$49,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <f>VLOOKUP("Long-term debt",'Balance Sheet (Annual)'!$A$1:$Z$49,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f>VLOOKUP("Long-term debt",'Balance Sheet (Annual)'!$A$1:$Z$49,6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1776,33 +1856,79 @@
         <f>AVERAGE(P2:P4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" s="4" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="29">
+        <f ca="1">-PV(U5,(S5-YEAR(NOW())),,((S5-YEAR(NOW()))*(T5*U5)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5">
+        <f>VLOOKUP("Interest Expense",'Income Statement'!$A$2:$AE$36,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>VLOOKUP("Interest Expense",'Income Statement'!$A$2:$AE$36,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f>VLOOKUP("Interest Expense",'Income Statement'!$A$2:$AE$36,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP("Interest Expense",'Income Statement'!$A$2:$AE$36,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f>VLOOKUP("Interest Expense",'Income Statement'!$A$2:$AE$36,6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(B4="FCFF", "WACC", "Cost of Equity")</f>
         <v>WACC</v>
       </c>
       <c r="B6" s="11" t="e">
         <f>IF(B4="FCFF",P20,P19)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C6" s="8"/>
       <c r="S6" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="11" t="e">
-        <f>SUMPRODUCT(#REF!,#REF!)/T5</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="T6" s="4">
+        <f>SUM(T4:T5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z6" t="e">
+        <f>Z5/SUM(Z3:Z4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" t="e">
+        <f t="shared" ref="AA6:AD6" si="0">AA5/SUM(AA3:AA4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1811,14 +1937,21 @@
         <v>106</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="T7" s="11" t="e">
-        <f>T6*(1-P14)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="T7" s="72" t="e">
+        <f>SUMPRODUCT(U4:U5,T4:T5)/T6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y7" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z7" t="e">
+        <f>AVERAGE(Z6:AD6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1830,14 +1963,28 @@
         <f>P5</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S8" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="T8" s="72" t="e">
+        <f>T7*(1-P14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y8" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z8" s="71" t="e">
+        <f>Z7*(1-P14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="O9" t="s">
         <v>107</v>
       </c>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1874,12 +2021,12 @@
       <c r="O10" t="s">
         <v>108</v>
       </c>
-      <c r="P10" s="39" t="e">
-        <f>T5</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P10" s="39">
+        <f>T6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1921,7 +2068,7 @@
       </c>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1974,7 +2121,7 @@
       </c>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -1987,35 +2134,35 @@
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ref="D13:K13" si="0">IF(D11&lt;=$B$7,C13*(1+D12),0)</f>
+        <f t="shared" ref="D13:K13" si="1">IF(D11&lt;=$B$7,C13*(1+D12),0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L13" s="4" t="e">
@@ -2030,49 +2177,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>131</v>
       </c>
       <c r="B14" s="39" t="e">
         <f>B13/(1+$B$6)^B11</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C14" s="39" t="e">
-        <f t="shared" ref="C14:K14" si="1">C13/(1+$B$6)^C11</f>
-        <v>#REF!</v>
+        <f t="shared" ref="C14:K14" si="2">C13/(1+$B$6)^C11</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D14" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E14" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="39" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G14" s="41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H14" s="41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I14" s="41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J14" s="41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K14" s="41" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L14" s="39" t="e">
         <f>L13/(1+B6)^HLOOKUP(B7,B11:K13,1)</f>
@@ -2086,22 +2233,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="O15" t="s">
         <v>114</v>
       </c>
       <c r="P15" s="11" t="e">
         <f>P10/(P10+P13)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="O16" t="s">
         <v>113</v>
       </c>
       <c r="P16" s="8" t="e">
         <f>1-P15</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2110,7 +2257,7 @@
       </c>
       <c r="B17" s="39" t="e">
         <f>SUM(B14:L14)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O17" t="s">
         <v>115</v>
@@ -2129,8 +2276,8 @@
         <v>116</v>
       </c>
       <c r="P18" s="8" t="e">
-        <f>T7</f>
-        <v>#REF!</v>
+        <f>IF(Y1="Custom Spreadsheet",T8,Z8)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2139,7 +2286,7 @@
       </c>
       <c r="B19" s="5" t="e">
         <f>B17-B18</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O19" t="s">
         <v>23</v>
@@ -2155,7 +2302,7 @@
       </c>
       <c r="P20" s="57" t="e">
         <f>(P18*P15)+(P19*P16)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2164,11 +2311,11 @@
       </c>
       <c r="B21" s="42" t="e">
         <f>B19/P11</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C21" s="43" t="e">
         <f>B21/P12-1</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2201,11 +2348,11 @@
       </c>
       <c r="B25" s="44" t="e">
         <f>B21</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C25" s="45" t="e">
         <f>C21</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D25" s="47">
         <v>0.8</v>
@@ -2240,7 +2387,7 @@
       </c>
       <c r="G26" s="52" t="e">
         <f>B28</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H26" s="54">
         <v>-0.09</v>
@@ -2312,11 +2459,11 @@
       </c>
       <c r="B28" s="49" t="e">
         <f>(B25*D25)+(B26*D26)+(B27*D27)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28" s="50" t="e">
         <f>B28/P12-1</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D28" s="48">
         <f>SUM(D25:D27)</f>
@@ -2379,7 +2526,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F30" s="67"/>
       <c r="G30" s="8">
-        <f t="shared" ref="G30:G33" si="2">G29+0.005</f>
+        <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H30" s="55" t="e">
@@ -2407,7 +2554,7 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F31" s="67"/>
       <c r="G31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="H31" s="55" t="e">
@@ -2435,7 +2582,7 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F32" s="67"/>
       <c r="G32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="H32" s="55" t="e">
@@ -2463,7 +2610,7 @@
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F33" s="67"/>
       <c r="G33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
       </c>
       <c r="H33" s="55" t="e">
@@ -2533,9 +2680,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1" xr:uid="{33D063B7-09F7-4604-9061-8CCE50158D64}">
+      <formula1>"Financial Statements,Custom Spreadsheet"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2544,232 +2694,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D9D38E-69B5-4289-A7C3-C3659624050C}">
-  <sheetPr codeName="Sheet10">
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A2:B40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="52.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8148BC74-124A-4CC0-8A98-C2218A2E7FF0}">
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -3323,31 +3254,265 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A36C10-B6B1-4DA2-9C93-B51419F00FA8}">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M617" sqref="M617"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1" t="s">
-        <v>318</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="29">
+        <f t="shared" ref="D3:D27" ca="1" si="0">-PV(C3,(A3-YEAR(NOW())),,((A3-YEAR(NOW()))*(B3*C3)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="29">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3856,8 +4021,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3996,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J8" s="64">
         <f>MIN(B9,B16,B24,B34)</f>
@@ -4019,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J9" s="64">
         <f>MIN(E9,E18,E24,E36)</f>
@@ -4394,7 +4559,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4978,7 +5143,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B18" s="8">
         <f>MIN(M12:M14)</f>
@@ -4999,7 +5164,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5018,11 +5183,11 @@
         <v>89</v>
       </c>
       <c r="B3" s="27">
-        <f>'Balance Sheet (Quarterly)'!B2</f>
+        <f>'Balance Sheet (Annual)'!B2</f>
         <v>0</v>
       </c>
       <c r="C3" s="27">
-        <f>'Balance Sheet (Quarterly)'!C2</f>
+        <f>'Balance Sheet (Annual)'!C2</f>
         <v>0</v>
       </c>
     </row>
@@ -5031,11 +5196,11 @@
         <v>85</v>
       </c>
       <c r="B4" s="12">
-        <f>VLOOKUP(A4,'Balance Sheet (Quarterly)'!1:1048576,2,FALSE)</f>
+        <f>VLOOKUP(A4,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C4" s="12">
-        <f>VLOOKUP(A4,'Balance Sheet (Quarterly)'!1:1048576,3,FALSE)</f>
+        <f>VLOOKUP(A4,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5044,11 +5209,11 @@
         <v>86</v>
       </c>
       <c r="B5" s="12">
-        <f>VLOOKUP(A5,'Balance Sheet (Quarterly)'!1:1048576,2,FALSE)</f>
+        <f>VLOOKUP(A5,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C5" s="12">
-        <f>VLOOKUP(A5,'Balance Sheet (Quarterly)'!1:1048576,3,FALSE)</f>
+        <f>VLOOKUP(A5,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5057,11 +5222,11 @@
         <v>87</v>
       </c>
       <c r="B6" s="12">
-        <f>VLOOKUP(A6,'Balance Sheet (Quarterly)'!1:1048576,2,FALSE)</f>
+        <f>VLOOKUP(A6,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C6" s="12">
-        <f>VLOOKUP(A6,'Balance Sheet (Quarterly)'!1:1048576,3,FALSE)</f>
+        <f>VLOOKUP(A6,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5089,11 +5254,11 @@
         <v>91</v>
       </c>
       <c r="B10" s="12">
-        <f>VLOOKUP(A10,'Balance Sheet (Quarterly)'!1:1048576,2,FALSE)</f>
+        <f>VLOOKUP(A10,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C10" s="12">
-        <f>VLOOKUP(A10,'Balance Sheet (Quarterly)'!1:1048576,3,FALSE)</f>
+        <f>VLOOKUP(A10,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5102,11 +5267,11 @@
         <v>92</v>
       </c>
       <c r="B11" s="12">
-        <f>VLOOKUP(A11,'Balance Sheet (Quarterly)'!1:1048576,2,FALSE)</f>
+        <f>VLOOKUP(A11,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C11" s="12">
-        <f>VLOOKUP(A11,'Balance Sheet (Quarterly)'!1:1048576,3,FALSE)</f>
+        <f>VLOOKUP(A11,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5115,24 +5280,24 @@
         <v>93</v>
       </c>
       <c r="B12" s="12">
-        <f>_xlfn.IFNA(VLOOKUP(A12,'Balance Sheet (Quarterly)'!1:1048576,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A12,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C12" s="12">
-        <f>_xlfn.IFNA(VLOOKUP(A12,'Balance Sheet (Quarterly)'!1:1048576,3,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(B12,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B13" s="12">
-        <f>_xlfn.IFNA(VLOOKUP(A13,'Balance Sheet (Quarterly)'!1:1048576,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A13,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C13" s="12">
-        <f>_xlfn.IFNA(VLOOKUP(A13,'Balance Sheet (Quarterly)'!1:1048576,3,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A13,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5141,11 +5306,11 @@
         <v>94</v>
       </c>
       <c r="B14" s="12">
-        <f>VLOOKUP(A14,'Balance Sheet (Quarterly)'!1:1048576,2,FALSE)</f>
+        <f>VLOOKUP(A14,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C14" s="12">
-        <f>VLOOKUP(A14,'Balance Sheet (Quarterly)'!1:1048576,3,FALSE)</f>
+        <f>VLOOKUP(A14,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5584,244 +5749,217 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D1EB59-0C92-41DA-863D-E4C3A0D22A37}">
-  <sheetPr codeName="Sheet9">
-    <tabColor rgb="FF0070C0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D9D38E-69B5-4289-A7C3-C3659624050C}">
+  <sheetPr codeName="Sheet10">
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A2:A46"/>
+  <dimension ref="A2:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A6FC9E-6E74-4CF0-8E03-2DFD8E937A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FBF1C8-ABE7-4427-A947-4CAEBA68ED5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1473,6 +1473,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1485,8 +1487,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -1782,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1857,7 +1857,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="29"/>
       <c r="P3" s="36"/>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="68" t="s">
         <v>102</v>
       </c>
       <c r="T3" s="4">
@@ -1896,10 +1896,10 @@
         <v>63</v>
       </c>
       <c r="P4" s="36"/>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="T4" s="73" t="e">
+      <c r="T4" s="69" t="e">
         <f>SUMPRODUCT('Debt Template'!C3:C2166,'Debt Template'!B3:B2166)/T3</f>
         <v>#DIV/0!</v>
       </c>
@@ -1942,7 +1942,7 @@
         <f>AVERAGE(P2:P4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="72" t="s">
+      <c r="S5" s="68" t="s">
         <v>104</v>
       </c>
       <c r="T5" s="67" t="e">
@@ -2131,7 +2131,10 @@
       <c r="O11" t="s">
         <v>109</v>
       </c>
-      <c r="P11" s="22"/>
+      <c r="P11" s="22">
+        <f>VLOOKUP("Shares Mil", 'Key Ratios'!1:1048576,2,FALSE)/100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2397,15 +2400,15 @@
         <v>126</v>
       </c>
       <c r="G24" s="50"/>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
@@ -2422,15 +2425,15 @@
       <c r="D25" s="46">
         <v>0.8</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
@@ -2447,7 +2450,7 @@
       <c r="D26" s="46">
         <v>0.2</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="72" t="s">
         <v>133</v>
       </c>
       <c r="G26" s="51" t="e">
@@ -2491,7 +2494,7 @@
       <c r="D27" s="46">
         <v>0</v>
       </c>
-      <c r="F27" s="70"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="8">
         <v>5.5E-2</v>
       </c>
@@ -2534,7 +2537,7 @@
         <f>SUM(D25:D27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="70"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="8">
         <v>0.06</v>
       </c>
@@ -2561,7 +2564,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="70"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="8">
         <f>G28+0.005</f>
         <v>6.5000000000000002E-2</v>
@@ -2589,7 +2592,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="70"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="8">
         <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
@@ -2617,7 +2620,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="70"/>
+      <c r="F31" s="72"/>
       <c r="G31" s="8">
         <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
@@ -2645,7 +2648,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="70"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="8">
         <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
@@ -2673,7 +2676,7 @@
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F33" s="70"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="8">
         <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
@@ -2701,7 +2704,7 @@
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F34" s="70"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="8">
         <v>0.09</v>
       </c>
@@ -13525,14 +13528,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="D1" s="71" t="s">
+      <c r="B1" s="73"/>
+      <c r="D1" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="73"/>
       <c r="I1" t="s">
         <v>71</v>
       </c>
@@ -13542,14 +13545,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="D3" s="71" t="s">
+      <c r="B3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="73"/>
       <c r="I3" t="s">
         <v>73</v>
       </c>
@@ -13684,14 +13687,14 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="D11" s="71" t="s">
+      <c r="B11" s="73"/>
+      <c r="D11" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="71"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -13793,14 +13796,14 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="D20" s="71" t="s">
+      <c r="B20" s="73"/>
+      <c r="D20" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="71"/>
+      <c r="E20" s="73"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -13868,14 +13871,14 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="D26" s="71" t="s">
+      <c r="B26" s="73"/>
+      <c r="D26" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="73"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FBF1C8-ABE7-4427-A947-4CAEBA68ED5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894177E9-D87A-44FA-83B4-E33BAF96E04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="319">
   <si>
     <t>EPS</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Cost of Equity</t>
   </si>
   <si>
-    <t>Ke</t>
-  </si>
-  <si>
     <t>Beta</t>
   </si>
   <si>
@@ -215,12 +212,6 @@
     <t>https://finance.yahoo.com/quote/UNP/</t>
   </si>
   <si>
-    <t>Risk-Free Rate (Rf)</t>
-  </si>
-  <si>
-    <t>Equity Risk Premium (ERP)</t>
-  </si>
-  <si>
     <t>https://www.cnbc.com/quotes/?symbol=US10Y</t>
   </si>
   <si>
@@ -233,15 +224,6 @@
     <t>High Growth Rate</t>
   </si>
   <si>
-    <t>2018 Hike</t>
-  </si>
-  <si>
-    <t>2019 Hike</t>
-  </si>
-  <si>
-    <t>Historical Dividend Raises</t>
-  </si>
-  <si>
     <t>Cost of Equity - Terminal Growth</t>
   </si>
   <si>
@@ -1091,13 +1073,16 @@
     <t>Debt Analysis Source</t>
   </si>
   <si>
+    <t>Current Debt</t>
+  </si>
+  <si>
+    <t>Average Cost of Debt</t>
+  </si>
+  <si>
     <t>Custom Spreadsheet</t>
   </si>
   <si>
-    <t>Current Debt</t>
-  </si>
-  <si>
-    <t>Average Cost of Debt</t>
+    <t>Financial Statements</t>
   </si>
 </sst>
 </file>
@@ -1780,10 +1765,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,29 +1785,33 @@
     <col min="22" max="22" width="16" customWidth="1"/>
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4">
         <f>'FCFF &amp; FCFE'!J9</f>
         <v>0</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X1" s="64" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4">
         <f>'FCFF &amp; FCFE'!J8</f>
@@ -1830,7 +1819,7 @@
       </c>
       <c r="P2" s="36"/>
       <c r="S2" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Z2">
         <f>'Balance Sheet (Annual)'!A2</f>
@@ -1852,20 +1841,23 @@
         <f>'Balance Sheet (Annual)'!E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AL2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="F3" s="8"/>
       <c r="G3" s="29"/>
       <c r="P3" s="36"/>
       <c r="S3" s="68" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T3" s="4">
         <f>SUM('Debt Template'!B3:B628)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="65" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Z3">
         <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,2,FALSE)</f>
@@ -1888,16 +1880,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P4" s="36"/>
       <c r="S4" s="68" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="T4" s="69" t="e">
         <f>SUMPRODUCT('Debt Template'!C3:C2166,'Debt Template'!B3:B2166)/T3</f>
@@ -1927,30 +1919,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4">
         <f>IF(B4="FCFF",B2,B1)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P5" s="57" t="e">
         <f>AVERAGE(P2:P4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S5" s="68" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="T5" s="67" t="e">
-        <f ca="1">T4(1-P14)</f>
-        <v>#REF!</v>
+        <f>T4 * (1-P14)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Z5">
         <f>VLOOKUP("Interest Expense",'Income Statement'!$A$2:$AE$36,2,FALSE)</f>
@@ -1973,18 +1965,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(B4="FCFF", "WACC", "Cost of Equity")</f>
         <v>WACC</v>
       </c>
       <c r="B6" s="11" t="e">
-        <f ca="1">IF(B4="FCFF",P20,P19)</f>
-        <v>#REF!</v>
+        <f>IF(B4="FCFF",P20,P19)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C6" s="8"/>
       <c r="Y6" s="64" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="e">
         <f>Z5/SUM(Z3:Z4)</f>
@@ -2007,51 +1999,51 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B7" s="12"/>
       <c r="O7" s="37" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y7" s="64" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Z7" t="e">
         <f>AVERAGE(Z6:AD6)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="61"/>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P8" s="6" t="e">
         <f>P5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y8" s="64" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Z8" s="66" t="e">
         <f>Z7*(1-P14)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="O9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" s="15">
         <v>2020</v>
@@ -2084,16 +2076,16 @@
         <v>2029</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P10" s="38">
-        <f>T3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+        <f>IF(Y1="Custom Spreadsheet",T3,SUM(Z3:Z4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
@@ -2126,19 +2118,19 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P11" s="22">
         <f>VLOOKUP("Shares Mil", 'Key Ratios'!1:1048576,2,FALSE)/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="13">
         <f>IF(B11&lt;=$B$7,'Growth Rates'!$B$18,$B$8)</f>
@@ -2185,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B13" s="4">
         <f>IF(B11&lt;=$B$7,B5*(1+B12),0)</f>
@@ -2234,85 +2226,85 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="e">
-        <f ca="1">(HLOOKUP(B7,B11:K13,3)*(1+L12))/(B6-B8)</f>
+        <f>(HLOOKUP(B7,B11:K13,3)*(1+L12))/(B6-B8)</f>
         <v>#N/A</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="P13" s="4">
         <f>P11*P12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B14" s="38" t="e">
-        <f ca="1">B13/(1+$B$6)^B11</f>
-        <v>#REF!</v>
+        <f>B13/(1+$B$6)^B11</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C14" s="38" t="e">
-        <f t="shared" ref="C14:K14" ca="1" si="2">C13/(1+$B$6)^C11</f>
-        <v>#REF!</v>
+        <f t="shared" ref="C14:K14" si="2">C13/(1+$B$6)^C11</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D14" s="38" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="E14" s="38" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="F14" s="38" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="G14" s="40" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H14" s="40" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I14" s="40" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="J14" s="40" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K14" s="40" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#REF!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L14" s="38" t="e">
-        <f ca="1">L13/(1+B6)^HLOOKUP(B7,B11:K13,1)</f>
+        <f>L13/(1+B6)^HLOOKUP(B7,B11:K13,1)</f>
         <v>#N/A</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P14" s="39">
         <f>'FCFF &amp; FCFE'!J1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="O15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P15" s="11" t="e">
         <f>P10/(P10+P13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="O16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P16" s="8" t="e">
         <f>1-P15</f>
@@ -2321,14 +2313,14 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B17" s="38" t="e">
-        <f ca="1">SUM(B14:L14)</f>
-        <v>#REF!</v>
+        <f>SUM(B14:L14)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P17" s="13"/>
     </row>
@@ -2341,20 +2333,20 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P18" s="8" t="e">
-        <f ca="1">IF(Y1="Custom Spreadsheet",T5,Z8)</f>
-        <v>#REF!</v>
+        <f>IF(Y1="Custom Spreadsheet",T5,Z8)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B19" s="5" t="e">
-        <f ca="1">B17-B18</f>
-        <v>#REF!</v>
+        <f>B17-B18</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O19" t="s">
         <v>23</v>
@@ -2366,42 +2358,42 @@
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O20" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P20" s="56" t="e">
-        <f ca="1">(P18*P15)+(P19*P16)</f>
-        <v>#REF!</v>
+        <f>(P18*P15)+(P19*P16)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B21" s="41" t="e">
-        <f ca="1">B19/P11</f>
-        <v>#REF!</v>
+        <f>B19/P11</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C21" s="42" t="e">
-        <f ca="1">B21/P12-1</f>
-        <v>#REF!</v>
+        <f>B21/P12-1</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G24" s="50"/>
       <c r="H24" s="71" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
@@ -2412,21 +2404,21 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B25" s="43" t="e">
-        <f ca="1">B21</f>
-        <v>#REF!</v>
+        <f>B21</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C25" s="44" t="e">
-        <f ca="1">C21</f>
-        <v>#REF!</v>
+        <f>C21</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D25" s="46">
         <v>0.8</v>
       </c>
       <c r="H25" s="70" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I25" s="70"/>
       <c r="J25" s="70"/>
@@ -2437,7 +2429,7 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B26" s="43">
         <f>Multiples!A8</f>
@@ -2451,11 +2443,11 @@
         <v>0.2</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G26" s="51" t="e">
-        <f ca="1">B28</f>
-        <v>#REF!</v>
+        <f>B28</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="H26" s="53">
         <v>-0.09</v>
@@ -2481,7 +2473,7 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B27" s="43" t="e">
         <f>DDM!B18</f>
@@ -2499,7 +2491,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="H27" s="54" t="e">
-        <f t="dataTable" ref="H27:N34" dt2D="1" dtr="1" r1="B12" r2="B6" ca="1"/>
+        <f t="dataTable" ref="H27:N34" dt2D="1" dtr="1" r1="B12" r2="B6"/>
         <v>#N/A</v>
       </c>
       <c r="I27" s="54" t="e">
@@ -2526,12 +2518,12 @@
         <v>3</v>
       </c>
       <c r="B28" s="48" t="e">
-        <f ca="1">(B25*D25)+(B26*D26)+(B27*D27)</f>
-        <v>#REF!</v>
+        <f>(B25*D25)+(B26*D26)+(B27*D27)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28" s="49" t="e">
-        <f ca="1">B28/P12-1</f>
-        <v>#REF!</v>
+        <f>B28/P12-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D28" s="47">
         <f>SUM(D25:D27)</f>
@@ -2752,8 +2744,8 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1" xr:uid="{33D063B7-09F7-4604-9061-8CCE50158D64}">
-      <formula1>"Financial Statements,Custom Spreadsheet"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1" xr:uid="{C586579C-E34B-4EBA-AEF6-208075B9439E}">
+      <formula1>$AL$1:$AL$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2780,436 +2772,436 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B3" s="58"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B7" s="58"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B11" s="58"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B13" s="58"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B14" s="58"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B15" s="58"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3219,103 +3211,103 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3343,21 +3335,21 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3369,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I3">
         <f>SUM(B3:B628)</f>
@@ -3385,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I4" t="e">
         <f>SUMPRODUCT(C3:C2166,B3:B2166)/I3</f>
@@ -3401,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I5" t="e">
         <f ca="1">I4(1-DCF!P14)</f>
@@ -13155,8 +13147,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13169,22 +13161,13 @@
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>1.1100000000000001</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -13192,14 +13175,9 @@
         <v>22</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8">
-        <v>5.2200000000000003E-2</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="H3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -13208,104 +13186,72 @@
       </c>
       <c r="B4" s="11">
         <f>F4+(F2*F3)</f>
-        <v>7.3572000000000012E-2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1.5630000000000002E-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="H4" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="12">
+        <f>DCF!B7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="11">
-        <f>0.73/0.665-1</f>
-        <v>9.7744360902255467E-2</v>
-      </c>
-      <c r="G7" s="11">
-        <f>0.8/0.73-1</f>
-        <v>9.5890410958904271E-2</v>
-      </c>
-      <c r="H7" s="11">
-        <f>(F7+G7)/2</f>
-        <v>9.6817385930579869E-2</v>
-      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" s="8">
         <f>B4-B7</f>
-        <v>7.3572000000000012E-2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="11">
-        <f>0.88/0.8-1</f>
-        <v>9.9999999999999867E-2</v>
-      </c>
-      <c r="G8" s="11">
-        <f>0.97/0.88-1</f>
-        <v>0.10227272727272729</v>
-      </c>
-      <c r="H8" s="11">
-        <f>(F8+G8)/2</f>
-        <v>0.10113636363636358</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H9" s="11">
-        <f>(H7+H8)/2</f>
-        <v>9.8976874783471724E-2</v>
-      </c>
+      <c r="H9" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -13338,12 +13284,12 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8">
         <f>IF(B12&lt;=$B$5,$B$6,$B$7)</f>
@@ -13392,7 +13338,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <f>IF(B12&lt;=$B$5,$B$3*(1+$B$6),0)</f>
@@ -13441,7 +13387,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <f>B14/(1+$B$4)^B12</f>
@@ -13490,7 +13436,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" s="14" t="e">
         <f>SUM(B15:L15)</f>
@@ -13529,15 +13475,15 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="73"/>
       <c r="D1" s="73" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E1" s="73"/>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J1" s="23">
         <f>VLOOKUP("Tax Rate %", 'Key Ratios'!1:1048576,2,FALSE)/100</f>
@@ -13546,15 +13492,15 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" s="73"/>
       <c r="D3" s="73" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E3" s="73"/>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J3" s="12">
         <f>VLOOKUP("Debt Issued",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
@@ -13563,21 +13509,21 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4" s="22">
         <f>VLOOKUP("Net income available to common shareholders",'Income Statement'!A2:AE36,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <f>B4</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J4" s="12">
         <f>VLOOKUP("Debt Repayment",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
@@ -13586,21 +13532,21 @@
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B5" s="22">
         <f>VLOOKUP("Depreciation &amp; amortization",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(J3:J4)</f>
@@ -13609,14 +13555,14 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B6" s="22">
         <f>-'Change WC'!B18</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <f>B6</f>
@@ -13625,14 +13571,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B7" s="22">
         <f>VLOOKUP("Capital expenditure",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <f>B7</f>
@@ -13641,21 +13587,21 @@
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" s="22">
         <f>VLOOKUP("Interest Expense",'Income Statement'!A2:AE36,2,FALSE) * (1-J1)</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E8" s="12">
         <f>J5</f>
         <v>0</v>
       </c>
       <c r="I8" s="62" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="J8" s="63">
         <f>MIN(B9,B16,B24,B34)</f>
@@ -13664,21 +13610,21 @@
     </row>
     <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" s="25">
         <f>SUM(B4:B8)</f>
         <v>0</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E9" s="24">
         <f>SUM(E4:E8)</f>
         <v>0</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J9" s="63">
         <f>MIN(E9,E18,E24,E36)</f>
@@ -13688,24 +13634,24 @@
     <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B11" s="73"/>
       <c r="D11" s="73" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E11" s="73"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B12" s="22">
         <f>VLOOKUP("Operating Income",'Income Statement'!1:1048576,2,FALSE)*(1-J1)</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E12" s="21">
         <f>B12</f>
@@ -13714,14 +13660,14 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E13">
         <f>B5</f>
@@ -13730,14 +13676,14 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <f>B6</f>
@@ -13746,14 +13692,14 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <f>B7</f>
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <f>B7</f>
@@ -13762,14 +13708,14 @@
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="25">
         <f>SUM(B12:B15)</f>
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <f>B8</f>
@@ -13778,7 +13724,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <f>E8</f>
@@ -13787,7 +13733,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E18" s="25">
         <f>SUM(E12:E17)</f>
@@ -13797,24 +13743,24 @@
     <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="73" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B20" s="73"/>
       <c r="D20" s="73" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E20" s="73"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B21" s="22">
         <f>VLOOKUP("Operating cash flow",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <f>B21</f>
@@ -13823,14 +13769,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B22" s="21">
         <f>B8</f>
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <f>B7</f>
@@ -13839,14 +13785,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B23" s="21">
         <f>B7</f>
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <f>E8</f>
@@ -13855,14 +13801,14 @@
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B24" s="25">
         <f>SUM(B21:B23)</f>
         <v>0</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E24" s="24">
         <f>SUM(E21:E23)</f>
@@ -13872,24 +13818,24 @@
     <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B26" s="73"/>
       <c r="D26" s="73" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E26" s="73"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B27" s="21">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E27" s="21">
         <f>B12</f>
@@ -13898,14 +13844,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <f>B5</f>
@@ -13914,14 +13860,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B29" s="12">
         <f>_xlfn.IFNA(VLOOKUP("Stock Compensation",'Cash Flow Statement'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E29">
         <f>B29</f>
@@ -13930,14 +13876,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B30" s="12">
         <f>_xlfn.IFNA(VLOOKUP(A30,'Cash Flow Statement'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E30">
         <f>B30</f>
@@ -13946,14 +13892,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B31" s="12">
         <f>_xlfn.IFNA(VLOOKUP("Deferred Income Taxes",'Cash Flow Statement'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E31">
         <f>B31</f>
@@ -13962,14 +13908,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <f>B6</f>
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <f>B6</f>
@@ -13978,14 +13924,14 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <f>B7</f>
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <f>B7</f>
@@ -13994,14 +13940,14 @@
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B34" s="25">
         <f>SUM(B27:B33)</f>
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <f>B8</f>
@@ -14010,7 +13956,7 @@
     </row>
     <row r="35" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E35">
         <f>E8</f>
@@ -14019,7 +13965,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E36" s="25">
         <f>SUM(E27:E35)</f>
@@ -14053,7 +13999,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14063,7 +14009,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="16">
         <f>'Key Ratios'!C2</f>
@@ -14108,7 +14054,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" s="12">
         <f>'Key Ratios'!C10</f>
@@ -14151,12 +14097,12 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12">
         <f>'Key Ratios'!C35</f>
@@ -14199,12 +14145,12 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" s="12">
         <f>'Key Ratios'!C37</f>
@@ -14249,7 +14195,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B5" s="12">
         <f>'Key Ratios'!C38</f>
@@ -14294,7 +14240,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B7" s="15">
         <f>1-(B2/100)</f>
@@ -14339,7 +14285,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B8" s="15">
         <f>B3/100</f>
@@ -14384,7 +14330,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9" s="15">
         <f>B4/100</f>
@@ -14429,7 +14375,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" s="15">
         <f>B5/100</f>
@@ -14474,12 +14420,12 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M11" s="17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" s="20">
         <f>(B8*B7)/(1-(B8*B7))</f>
@@ -14528,7 +14474,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B13" s="20">
         <f>(B9*B7)/(1-(B9*B7))</f>
@@ -14577,7 +14523,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B14" s="20">
         <f>B10*B7</f>
@@ -14626,18 +14572,18 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B18" s="8">
         <f>MIN(M12:M14)</f>
@@ -14658,7 +14604,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14669,12 +14615,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B3" s="27">
         <f>'Balance Sheet (Annual)'!B2</f>
@@ -14687,7 +14633,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B4" s="12">
         <f>VLOOKUP(A4,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14700,7 +14646,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B5" s="12">
         <f>VLOOKUP(A5,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14713,7 +14659,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B6" s="12">
         <f>VLOOKUP(A6,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14726,7 +14672,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B7" s="24">
         <f>SUM(B4:B6)</f>
@@ -14740,12 +14686,12 @@
     <row r="8" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B10" s="12">
         <f>VLOOKUP(A10,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14758,20 +14704,20 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B11" s="12">
-        <f>VLOOKUP(A11,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A11,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C11" s="12">
-        <f>VLOOKUP(A11,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A11,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B12" s="12">
         <f>_xlfn.IFNA(VLOOKUP(A12,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
@@ -14784,7 +14730,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B13" s="12">
         <f>_xlfn.IFNA(VLOOKUP(A13,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
@@ -14797,7 +14743,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B14" s="12">
         <f>VLOOKUP(A14,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14810,7 +14756,7 @@
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B15" s="24">
         <f>SUM(B10:B14)</f>
@@ -14824,7 +14770,7 @@
     <row r="16" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B17" s="28">
         <f>B7-B15</f>
@@ -14837,7 +14783,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B18" s="26">
         <f>B17-C17</f>
@@ -14868,127 +14814,127 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -15014,227 +14960,227 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -15260,200 +15206,200 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894177E9-D87A-44FA-83B4-E33BAF96E04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83B632-87B8-49A8-AAEE-95B3CF262950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -1767,7 +1767,7 @@
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -3322,8 +3322,8 @@
   </sheetPr>
   <dimension ref="A1:I1592"/>
   <sheetViews>
-    <sheetView topLeftCell="A1565" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D1592"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,8 +3396,8 @@
         <v>98</v>
       </c>
       <c r="I5" t="e">
-        <f ca="1">I4(1-DCF!P14)</f>
-        <v>#REF!</v>
+        <f>I4*(1-DCF!P14)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83B632-87B8-49A8-AAEE-95B3CF262950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F766E809-6BAA-4D03-9B08-D841B4E103BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -3322,7 +3322,7 @@
   </sheetPr>
   <dimension ref="A1:I1592"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -13012,8 +13012,8 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13077,7 +13077,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="4">
-        <f>-VLOOKUP("Cash", 'Balance Sheet (Annual)'!A1:DJ60, 2,FALSE)</f>
+        <f>-IF(VLOOKUP("Cash",'Balance Sheet (Annual)'!A1:DJ60,2,FALSE)=0,VLOOKUP("Cash and Cash Equivalents",'Balance Sheet (Annual)'!A1:DJ60,2,FALSE),(VLOOKUP("Cash",'Balance Sheet (Annual)'!A1:DJ60,2,FALSE)))</f>
         <v>0</v>
       </c>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F766E809-6BAA-4D03-9B08-D841B4E103BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BEA26A-5577-4E86-90B5-6AA4A0EC2710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -1438,9 +1438,6 @@
     <xf numFmtId="10" fontId="2" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1460,6 +1457,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1767,8 +1767,8 @@
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,10 +1796,10 @@
         <f>'FCFF &amp; FCFE'!J9</f>
         <v>0</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="63" t="s">
         <v>314</v>
       </c>
       <c r="Y1" s="12" t="s">
@@ -1849,14 +1849,14 @@
       <c r="F3" s="8"/>
       <c r="G3" s="29"/>
       <c r="P3" s="36"/>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="67" t="s">
         <v>96</v>
       </c>
       <c r="T3" s="4">
         <f>SUM('Debt Template'!B3:B628)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="65" t="s">
+      <c r="Y3" s="64" t="s">
         <v>315</v>
       </c>
       <c r="Z3">
@@ -1888,10 +1888,10 @@
         <v>57</v>
       </c>
       <c r="P4" s="36"/>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="69" t="e">
+      <c r="T4" s="68" t="e">
         <f>SUMPRODUCT('Debt Template'!C3:C2166,'Debt Template'!B3:B2166)/T3</f>
         <v>#DIV/0!</v>
       </c>
@@ -1930,14 +1930,14 @@
       <c r="O5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P5" s="57" t="e">
+      <c r="P5" s="56" t="e">
         <f>AVERAGE(P2:P4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="68" t="s">
+      <c r="S5" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="67" t="e">
+      <c r="T5" s="66" t="e">
         <f>T4 * (1-P14)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="Y6" s="64" t="s">
+      <c r="Y6" s="63" t="s">
         <v>110</v>
       </c>
       <c r="Z6" t="e">
@@ -2007,7 +2007,7 @@
       <c r="O7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="Y7" s="64" t="s">
+      <c r="Y7" s="63" t="s">
         <v>316</v>
       </c>
       <c r="Z7" t="e">
@@ -2019,7 +2019,7 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="60"/>
       <c r="O8" t="s">
         <v>24</v>
       </c>
@@ -2027,10 +2027,10 @@
         <f>P5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="Y8" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" s="66" t="e">
+      <c r="Z8" s="65" t="e">
         <f>Z7*(1-P14)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>103</v>
       </c>
       <c r="P11" s="22">
-        <f>VLOOKUP("Shares Mil", 'Key Ratios'!1:1048576,2,FALSE)/100</f>
+        <f>VLOOKUP("Shares Mil", 'Key Ratios'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       <c r="O20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P20" s="56" t="e">
+      <c r="P20" s="55" t="e">
         <f>(P18*P15)+(P19*P16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2449,25 +2449,25 @@
         <f>B28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="52">
         <v>-0.09</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="52">
         <v>-0.06</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="52">
         <v>-0.03</v>
       </c>
-      <c r="K26" s="53">
-        <v>0</v>
-      </c>
-      <c r="L26" s="53">
+      <c r="K26" s="52">
+        <v>0</v>
+      </c>
+      <c r="L26" s="52">
         <v>0.03</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="52">
         <v>0.06</v>
       </c>
-      <c r="N26" s="53">
+      <c r="N26" s="52">
         <v>0.09</v>
       </c>
     </row>
@@ -2490,26 +2490,26 @@
       <c r="G27" s="8">
         <v>5.5E-2</v>
       </c>
-      <c r="H27" s="54" t="e">
+      <c r="H27" s="53" t="e">
         <f t="dataTable" ref="H27:N34" dt2D="1" dtr="1" r1="B12" r2="B6"/>
         <v>#N/A</v>
       </c>
-      <c r="I27" s="54" t="e">
+      <c r="I27" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J27" s="54" t="e">
+      <c r="J27" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K27" s="54" t="e">
+      <c r="K27" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L27" s="54" t="e">
+      <c r="L27" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M27" s="54" t="e">
+      <c r="M27" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N27" s="54" t="e">
+      <c r="N27" s="53" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2533,25 +2533,25 @@
       <c r="G28" s="8">
         <v>0.06</v>
       </c>
-      <c r="H28" s="54" t="e">
+      <c r="H28" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I28" s="54" t="e">
+      <c r="I28" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J28" s="54" t="e">
+      <c r="J28" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K28" s="54" t="e">
+      <c r="K28" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L28" s="54" t="e">
+      <c r="L28" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M28" s="54" t="e">
+      <c r="M28" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N28" s="54" t="e">
+      <c r="N28" s="53" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2561,25 +2561,25 @@
         <f>G28+0.005</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H29" s="54" t="e">
+      <c r="H29" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I29" s="54" t="e">
+      <c r="I29" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J29" s="54" t="e">
+      <c r="J29" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K29" s="54" t="e">
+      <c r="K29" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L29" s="54" t="e">
+      <c r="L29" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M29" s="54" t="e">
+      <c r="M29" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N29" s="54" t="e">
+      <c r="N29" s="53" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2589,25 +2589,25 @@
         <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H30" s="54" t="e">
+      <c r="H30" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I30" s="54" t="e">
+      <c r="I30" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J30" s="54" t="e">
+      <c r="J30" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K30" s="54" t="e">
+      <c r="K30" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L30" s="54" t="e">
+      <c r="L30" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M30" s="54" t="e">
+      <c r="M30" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N30" s="54" t="e">
+      <c r="N30" s="53" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2617,25 +2617,25 @@
         <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="H31" s="54" t="e">
+      <c r="H31" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I31" s="54" t="e">
+      <c r="I31" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J31" s="54" t="e">
+      <c r="J31" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K31" s="54" t="e">
+      <c r="K31" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L31" s="54" t="e">
+      <c r="L31" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M31" s="54" t="e">
+      <c r="M31" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N31" s="54" t="e">
+      <c r="N31" s="53" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2645,25 +2645,25 @@
         <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="H32" s="54" t="e">
+      <c r="H32" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I32" s="54" t="e">
+      <c r="I32" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J32" s="54" t="e">
+      <c r="J32" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K32" s="54" t="e">
+      <c r="K32" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L32" s="54" t="e">
+      <c r="L32" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M32" s="54" t="e">
+      <c r="M32" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N32" s="54" t="e">
+      <c r="N32" s="53" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2673,25 +2673,25 @@
         <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
       </c>
-      <c r="H33" s="54" t="e">
+      <c r="H33" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I33" s="54" t="e">
+      <c r="I33" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J33" s="54" t="e">
+      <c r="J33" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K33" s="54" t="e">
+      <c r="K33" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L33" s="54" t="e">
+      <c r="L33" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M33" s="54" t="e">
+      <c r="M33" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N33" s="54" t="e">
+      <c r="N33" s="53" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2700,25 +2700,25 @@
       <c r="G34" s="8">
         <v>0.09</v>
       </c>
-      <c r="H34" s="54" t="e">
+      <c r="H34" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I34" s="54" t="e">
+      <c r="I34" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J34" s="54" t="e">
+      <c r="J34" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="K34" s="54" t="e">
+      <c r="K34" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L34" s="54" t="e">
+      <c r="L34" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M34" s="54" t="e">
+      <c r="M34" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N34" s="54" t="e">
+      <c r="N34" s="53" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
   <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection sqref="A1:AR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2784,7 +2784,7 @@
       <c r="A3" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2795,7 +2795,7 @@
       <c r="A5" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2806,7 +2806,7 @@
       <c r="A7" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2827,7 +2827,7 @@
       <c r="A11" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2838,19 +2838,19 @@
       <c r="A13" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="58"/>
+      <c r="B14" s="57"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="58"/>
+      <c r="B15" s="57"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -3353,9 +3353,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="59"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="29">
         <f t="shared" ref="D3:D66" ca="1" si="0">-PV(C3,(A3-YEAR(NOW())),,((A3-YEAR(NOW()))*(B3*C3)))</f>
         <v>0</v>
@@ -3369,9 +3369,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -3385,9 +3385,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -3401,198 +3401,198 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="59"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="59"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="59"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="59"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="59"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="59"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="59"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="59"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="29">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -13012,7 +13012,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -13600,10 +13600,10 @@
         <f>J5</f>
         <v>0</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="62">
         <f>MIN(B9,B16,B24,B34)</f>
         <v>0</v>
       </c>
@@ -13623,10 +13623,10 @@
         <f>SUM(E4:E8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="62">
         <f>MIN(E9,E18,E24,E36)</f>
         <v>0</v>
       </c>
@@ -13996,10 +13996,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14012,44 +14012,44 @@
         <v>44</v>
       </c>
       <c r="B1" s="16">
-        <f>'Key Ratios'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="52">
-        <f>'Key Ratios'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="D1" s="52">
-        <f>'Key Ratios'!E2</f>
-        <v>0</v>
-      </c>
-      <c r="E1" s="52">
-        <f>'Key Ratios'!F2</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="52">
-        <f>'Key Ratios'!G2</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="52">
-        <f>'Key Ratios'!H2</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="52">
-        <f>'Key Ratios'!I2</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="52">
-        <f>'Key Ratios'!J2</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="52">
-        <f>'Key Ratios'!K2</f>
-        <v>0</v>
-      </c>
-      <c r="K1" s="52">
-        <f>'Key Ratios'!L2</f>
-        <v>0</v>
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,U29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="69">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,V29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D1" s="69">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,W29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="69">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,X29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="69">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,Y29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G1" s="69">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,Z29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="69">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,AA29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="69">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,AB29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J1" s="69">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,AC29,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K1" s="69" t="e">
+        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,AD29,FALSE)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -14057,43 +14057,43 @@
         <v>43</v>
       </c>
       <c r="B2" s="12">
-        <f>'Key Ratios'!C10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C2" s="12">
-        <f>'Key Ratios'!D10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D2" s="12">
-        <f>'Key Ratios'!E10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E2" s="12">
-        <f>'Key Ratios'!F10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F2" s="12">
-        <f>'Key Ratios'!G10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G2" s="12">
-        <f>'Key Ratios'!H10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H2" s="12">
-        <f>'Key Ratios'!I10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I2" s="12">
-        <f>'Key Ratios'!J10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,10,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J2" s="12">
-        <f>'Key Ratios'!K10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,11,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K2" s="12">
-        <f>'Key Ratios'!L10</f>
+        <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,12,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O2" t="s">
@@ -14105,43 +14105,43 @@
         <v>45</v>
       </c>
       <c r="B3" s="12">
-        <f>'Key Ratios'!C35</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C3" s="12">
-        <f>'Key Ratios'!D35</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D3" s="12">
-        <f>'Key Ratios'!E35</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E3" s="12">
-        <f>'Key Ratios'!F35</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <f>'Key Ratios'!G35</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G3" s="12">
-        <f>'Key Ratios'!H35</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H3" s="12">
-        <f>'Key Ratios'!I35</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I3" s="12">
-        <f>'Key Ratios'!J35</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,10,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J3" s="12">
-        <f>'Key Ratios'!K35</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,11,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K3" s="12">
-        <f>'Key Ratios'!L35</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,12,FALSE)</f>
         <v>0</v>
       </c>
       <c r="O3" t="s">
@@ -14153,43 +14153,43 @@
         <v>46</v>
       </c>
       <c r="B4" s="12">
-        <f>'Key Ratios'!C37</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C4" s="12">
-        <f>'Key Ratios'!D37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D4" s="12">
-        <f>'Key Ratios'!E37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4" s="12">
-        <f>'Key Ratios'!F37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F4" s="12">
-        <f>'Key Ratios'!G37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G4" s="12">
-        <f>'Key Ratios'!H37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H4" s="12">
-        <f>'Key Ratios'!I37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I4" s="12">
-        <f>'Key Ratios'!J37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,10,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J4" s="12">
-        <f>'Key Ratios'!K37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,11,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K4" s="12">
-        <f>'Key Ratios'!L37</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,12,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -14198,43 +14198,43 @@
         <v>47</v>
       </c>
       <c r="B5" s="12">
-        <f>'Key Ratios'!C38</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C5" s="12">
-        <f>'Key Ratios'!D38</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D5" s="12">
-        <f>'Key Ratios'!E38</f>
+        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E5" s="12">
-        <f>'Key Ratios'!F38</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F5" s="12">
-        <f>'Key Ratios'!G38</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G5" s="12">
-        <f>'Key Ratios'!H38</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H5" s="12">
-        <f>'Key Ratios'!I38</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I5" s="12">
-        <f>'Key Ratios'!J38</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,10,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>'Key Ratios'!K38</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,11,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K5" s="12">
-        <f>'Key Ratios'!L38</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,12,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -14581,13 +14581,45 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>311</v>
       </c>
       <c r="B18" s="8">
         <f>MIN(M12:M14)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>4</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>6</v>
+      </c>
+      <c r="Z29">
+        <v>7</v>
+      </c>
+      <c r="AA29">
+        <v>8</v>
+      </c>
+      <c r="AB29">
+        <v>9</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BEA26A-5577-4E86-90B5-6AA4A0EC2710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48B37C-0983-4744-8D67-97C2678784BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -13999,7 +13999,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14012,44 +14012,44 @@
         <v>44</v>
       </c>
       <c r="B1" s="16">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,U29,FALSE)</f>
-        <v>0</v>
+        <f ca="1">YEAR(TODAY()) - 1</f>
+        <v>2019</v>
       </c>
       <c r="C1" s="69">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,V29,FALSE)</f>
-        <v>0</v>
+        <f ca="1">YEAR(TODAY()) - U29</f>
+        <v>2018</v>
       </c>
       <c r="D1" s="69">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,W29,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ref="D1:K1" ca="1" si="0">YEAR(TODAY()) - V29</f>
+        <v>2017</v>
       </c>
       <c r="E1" s="69">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,X29,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2016</v>
       </c>
       <c r="F1" s="69">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,Y29,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2015</v>
       </c>
       <c r="G1" s="69">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,Z29,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2014</v>
       </c>
       <c r="H1" s="69">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,AA29,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2013</v>
       </c>
       <c r="I1" s="69">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,AB29,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2012</v>
       </c>
       <c r="J1" s="69">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,AC29,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K1" s="69" t="e">
-        <f>VLOOKUP("TTM",'Key Ratios'!$B$1:$AK$17,AD29,FALSE)</f>
-        <v>#VALUE!</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="K1" s="69">
+        <f t="shared" ca="1" si="0"/>
+        <v>2010</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -14157,39 +14157,39 @@
         <v>0</v>
       </c>
       <c r="C4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,4,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,6,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,8,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,9,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,10,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,10,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,11,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,11,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K4" s="12">
-        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,12,FALSE)</f>
+        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,12,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -14202,39 +14202,39 @@
         <v>0</v>
       </c>
       <c r="C5" s="12">
-        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,4,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D5" s="12">
-        <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,5,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,5,FALSE)</f>
         <v>0</v>
       </c>
       <c r="E5" s="12">
-        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,6,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F5" s="12">
-        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,7,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G5" s="12">
-        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,8,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H5" s="12">
-        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,9,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,9,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I5" s="12">
-        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,10,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,10,FALSE)</f>
         <v>0</v>
       </c>
       <c r="J5" s="12">
-        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,11,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,11,FALSE)</f>
         <v>0</v>
       </c>
       <c r="K5" s="12">
-        <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,12,FALSE)</f>
+        <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,12,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -14247,39 +14247,39 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f t="shared" ref="C7:K7" si="0">1-(C2/100)</f>
+        <f t="shared" ref="C7:K7" si="1">1-(C2/100)</f>
         <v>1</v>
       </c>
       <c r="D7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K7" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14292,39 +14292,39 @@
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <f t="shared" ref="C8:K8" si="1">C3/100</f>
+        <f t="shared" ref="C8:K8" si="2">C3/100</f>
         <v>0</v>
       </c>
       <c r="D8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -14337,39 +14337,39 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:K9" si="2">C4/100</f>
+        <f>C4/100</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="2"/>
+        <f>D4/100</f>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="2"/>
+        <f>E4/100</f>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="2"/>
+        <f>F4/100</f>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="2"/>
+        <f>G4/100</f>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="2"/>
+        <f>H4/100</f>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="2"/>
+        <f>I4/100</f>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="2"/>
+        <f>J4/100</f>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="2"/>
+        <f>K4/100</f>
         <v>0</v>
       </c>
     </row>
@@ -14382,39 +14382,39 @@
         <v>0</v>
       </c>
       <c r="C10" s="15">
-        <f t="shared" ref="C10:K10" si="3">C5/100</f>
+        <f>C5/100</f>
         <v>0</v>
       </c>
       <c r="D10" s="15">
-        <f t="shared" si="3"/>
+        <f>D5/100</f>
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <f t="shared" si="3"/>
+        <f>E5/100</f>
         <v>0</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="3"/>
+        <f>F5/100</f>
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="3"/>
+        <f>G5/100</f>
         <v>0</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="3"/>
+        <f>H5/100</f>
         <v>0</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="3"/>
+        <f>I5/100</f>
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="3"/>
+        <f>J5/100</f>
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" si="3"/>
+        <f>K5/100</f>
         <v>0</v>
       </c>
     </row>
@@ -14432,39 +14432,39 @@
         <v>0</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" ref="C12:K12" si="4">(C8*C7)/(1-(C8*C7))</f>
+        <f t="shared" ref="C12:K12" si="3">(C8*C7)/(1-(C8*C7))</f>
         <v>0</v>
       </c>
       <c r="D12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="18">
@@ -14481,43 +14481,43 @@
         <v>0</v>
       </c>
       <c r="C13" s="20">
-        <f t="shared" ref="C13:K13" si="5">(C9*C7)/(1-(C9*C7))</f>
+        <f t="shared" ref="C13:K13" si="4">(C9*C7)/(1-(C9*C7))</f>
         <v>0</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13" s="18">
-        <f t="shared" ref="M13:M14" si="6">AVERAGE(B13:K13)</f>
+        <f t="shared" ref="M13:M14" si="5">AVERAGE(B13:K13)</f>
         <v>0</v>
       </c>
     </row>
@@ -14530,43 +14530,43 @@
         <v>0</v>
       </c>
       <c r="C14" s="20">
-        <f t="shared" ref="C14:K14" si="7">C10*C7</f>
+        <f t="shared" ref="C14:K14" si="6">C10*C7</f>
         <v>0</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M14" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F48B37C-0983-4744-8D67-97C2678784BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4140E6-3792-47DB-9EBB-FC5EDDE9EF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="318">
   <si>
     <t>EPS</t>
   </si>
@@ -1056,9 +1056,6 @@
   </si>
   <si>
     <t>Asset Turnover</t>
-  </si>
-  <si>
-    <t>Deffered Revenue</t>
   </si>
   <si>
     <t xml:space="preserve">Chosen Growth Rate: </t>
@@ -1767,8 +1764,8 @@
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,13 +1797,13 @@
         <v>24</v>
       </c>
       <c r="X1" s="63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y1" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL1" t="s">
         <v>317</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
@@ -1842,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -1857,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z3">
         <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,2,FALSE)</f>
@@ -2008,7 +2005,7 @@
         <v>100</v>
       </c>
       <c r="Y7" s="63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z7" t="e">
         <f>AVERAGE(Z6:AD6)</f>
@@ -13601,7 +13598,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J8" s="62">
         <f>MIN(B9,B16,B24,B34)</f>
@@ -13624,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J9" s="62">
         <f>MIN(E9,E18,E24,E36)</f>
@@ -13998,7 +13995,7 @@
   </sheetPr>
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -14337,39 +14334,39 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f>C4/100</f>
+        <f t="shared" ref="C9:K9" si="3">C4/100</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f>D4/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f>E4/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f>F4/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f>G4/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f>H4/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f>I4/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f>J4/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f>K4/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14382,39 +14379,39 @@
         <v>0</v>
       </c>
       <c r="C10" s="15">
-        <f>C5/100</f>
+        <f t="shared" ref="C10:K10" si="4">C5/100</f>
         <v>0</v>
       </c>
       <c r="D10" s="15">
-        <f>D5/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E10" s="15">
-        <f>E5/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10" s="15">
-        <f>F5/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10" s="15">
-        <f>G5/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H10" s="15">
-        <f>H5/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10" s="15">
-        <f>I5/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J10" s="15">
-        <f>J5/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="15">
-        <f>K5/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14432,39 +14429,39 @@
         <v>0</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" ref="C12:K12" si="3">(C8*C7)/(1-(C8*C7))</f>
+        <f t="shared" ref="C12:K12" si="5">(C8*C7)/(1-(C8*C7))</f>
         <v>0</v>
       </c>
       <c r="D12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12" s="18">
@@ -14481,43 +14478,43 @@
         <v>0</v>
       </c>
       <c r="C13" s="20">
-        <f t="shared" ref="C13:K13" si="4">(C9*C7)/(1-(C9*C7))</f>
+        <f t="shared" ref="C13:K13" si="6">(C9*C7)/(1-(C9*C7))</f>
         <v>0</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K13" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M13" s="18">
-        <f t="shared" ref="M13:M14" si="5">AVERAGE(B13:K13)</f>
+        <f t="shared" ref="M13:M14" si="7">AVERAGE(B13:K13)</f>
         <v>0</v>
       </c>
     </row>
@@ -14530,43 +14527,43 @@
         <v>0</v>
       </c>
       <c r="C14" s="20">
-        <f t="shared" ref="C14:K14" si="6">C10*C7</f>
+        <f t="shared" ref="C14:K14" si="8">C10*C7</f>
         <v>0</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M14" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -14583,7 +14580,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" s="8">
         <f>MIN(M12:M14)</f>
@@ -14636,7 +14633,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14762,7 +14759,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="B13" s="12">
         <f>_xlfn.IFNA(VLOOKUP(A13,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
@@ -14981,7 +14978,7 @@
   </sheetPr>
   <dimension ref="A3:A47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\auto-valuation--master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4140E6-3792-47DB-9EBB-FC5EDDE9EF43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE9D1D8-7792-416D-A298-905FC7B29427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="323">
   <si>
     <t>EPS</t>
   </si>
@@ -1080,6 +1080,21 @@
   </si>
   <si>
     <t>Financial Statements</t>
+  </si>
+  <si>
+    <t>Multiples Input</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>EV</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1377,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1468,6 +1483,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2758,8 +2776,8 @@
   </sheetPr>
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AR24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13007,10 +13025,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13035,7 +13053,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <f>H11 * H12</f>
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -13047,7 +13068,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <f>2.66 * 0</f>
+        <v>0</v>
+      </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -13063,7 +13087,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <f>2.66 * 0</f>
+        <v>0</v>
+      </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -13128,6 +13155,45 @@
       </c>
       <c r="D8" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="74" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP("Earnings Per Share USD",'Key Ratios'!$1:$1048576,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -13458,8 +13524,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13996,7 +14062,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14978,7 +15044,7 @@
   </sheetPr>
   <dimension ref="A3:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE9D1D8-7792-416D-A298-905FC7B29427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A0D7B3-E5B2-49AA-9AB2-353BAA3DC267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="323">
   <si>
     <t>EPS</t>
   </si>
@@ -203,18 +203,6 @@
     <t>Beta</t>
   </si>
   <si>
-    <t>Sources</t>
-  </si>
-  <si>
-    <t>http://pages.stern.nyu.edu/~adamodar/</t>
-  </si>
-  <si>
-    <t>https://finance.yahoo.com/quote/UNP/</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/quotes/?symbol=US10Y</t>
-  </si>
-  <si>
     <t>Years of High Growth</t>
   </si>
   <si>
@@ -1095,6 +1083,18 @@
   </si>
   <si>
     <t>EV</t>
+  </si>
+  <si>
+    <t>Compunded Annual Growth Rate</t>
+  </si>
+  <si>
+    <t>5-Yr CAGR</t>
+  </si>
+  <si>
+    <t>4--Yr CAGR</t>
+  </si>
+  <si>
+    <t>3-Yr CAGR</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,8 +1253,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1367,6 +1373,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1377,7 +1506,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1472,6 +1601,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1484,8 +1616,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1782,7 +1947,7 @@
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1805,7 +1970,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4">
         <f>'FCFF &amp; FCFE'!J9</f>
@@ -1815,18 +1980,18 @@
         <v>24</v>
       </c>
       <c r="X1" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL1" t="s">
         <v>313</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4">
         <f>'FCFF &amp; FCFE'!J8</f>
@@ -1834,7 +1999,7 @@
       </c>
       <c r="P2" s="36"/>
       <c r="S2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Z2">
         <f>'Balance Sheet (Annual)'!A2</f>
@@ -1857,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -1865,14 +2030,14 @@
       <c r="G3" s="29"/>
       <c r="P3" s="36"/>
       <c r="S3" s="67" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="T3" s="4">
         <f>SUM('Debt Template'!B3:B628)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="64" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Z3">
         <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,2,FALSE)</f>
@@ -1897,14 +2062,14 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P4" s="36"/>
       <c r="S4" s="67" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="T4" s="68" t="e">
         <f>SUMPRODUCT('Debt Template'!C3:C2166,'Debt Template'!B3:B2166)/T3</f>
@@ -1936,28 +2101,28 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4">
         <f>IF(B4="FCFF",B2,B1)</f>
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P5" s="56" t="e">
         <f>AVERAGE(P2:P4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S5" s="67" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="T5" s="66" t="e">
         <f>T4 * (1-P14)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z5">
         <f>VLOOKUP("Interest Expense",'Income Statement'!$A$2:$AE$36,2,FALSE)</f>
@@ -1991,7 +2156,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="Y6" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="e">
         <f>Z5/SUM(Z3:Z4)</f>
@@ -2016,14 +2181,14 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" s="12"/>
       <c r="O7" s="37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y7" s="63" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Z7" t="e">
         <f>AVERAGE(Z6:AD6)</f>
@@ -2032,7 +2197,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="60"/>
       <c r="O8" t="s">
@@ -2043,7 +2208,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y8" s="63" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Z8" s="65" t="e">
         <f>Z7*(1-P14)</f>
@@ -2052,13 +2217,13 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="O9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="15">
         <v>2020</v>
@@ -2091,7 +2256,7 @@
         <v>2029</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P10" s="38">
         <f>IF(Y1="Custom Spreadsheet",T3,SUM(Z3:Z4))</f>
@@ -2100,7 +2265,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
@@ -2133,10 +2298,10 @@
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P11" s="22">
         <f>VLOOKUP("Shares Mil", 'Key Ratios'!1:1048576,2,FALSE)</f>
@@ -2145,7 +2310,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="13">
         <f>IF(B11&lt;=$B$7,'Growth Rates'!$B$18,$B$8)</f>
@@ -2192,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4">
         <f>IF(B11&lt;=$B$7,B5*(1+B12),0)</f>
@@ -2245,7 +2410,7 @@
         <v>#N/A</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P13" s="4">
         <f>P11*P12</f>
@@ -2254,7 +2419,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B14" s="38" t="e">
         <f>B13/(1+$B$6)^B11</f>
@@ -2301,7 +2466,7 @@
         <v>#N/A</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P14" s="39">
         <f>'FCFF &amp; FCFE'!J1</f>
@@ -2310,7 +2475,7 @@
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="O15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P15" s="11" t="e">
         <f>P10/(P10+P13)</f>
@@ -2319,7 +2484,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="O16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P16" s="8" t="e">
         <f>1-P15</f>
@@ -2328,14 +2493,14 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B17" s="38" t="e">
         <f>SUM(B14:L14)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P17" s="13"/>
     </row>
@@ -2348,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P18" s="8" t="e">
         <f>IF(Y1="Custom Spreadsheet",T5,Z8)</f>
@@ -2357,7 +2522,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B19" s="5" t="e">
         <f>B17-B18</f>
@@ -2373,7 +2538,7 @@
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O20" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P20" s="55" t="e">
         <f>(P18*P15)+(P19*P16)</f>
@@ -2382,7 +2547,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" s="41" t="e">
         <f>B19/P11</f>
@@ -2395,31 +2560,31 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G24" s="50"/>
-      <c r="H24" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
+      <c r="H24" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B25" s="43" t="e">
         <f>B21</f>
@@ -2432,19 +2597,19 @@
       <c r="D25" s="46">
         <v>0.8</v>
       </c>
-      <c r="H25" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
+      <c r="H25" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B26" s="43">
         <f>Multiples!A8</f>
@@ -2457,8 +2622,8 @@
       <c r="D26" s="46">
         <v>0.2</v>
       </c>
-      <c r="F26" s="72" t="s">
-        <v>127</v>
+      <c r="F26" s="73" t="s">
+        <v>123</v>
       </c>
       <c r="G26" s="51" t="e">
         <f>B28</f>
@@ -2488,20 +2653,20 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B27" s="43" t="e">
         <f>DDM!B18</f>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C27" s="45" t="e">
         <f>B27/P12-1</f>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D27" s="46">
         <v>0</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="8">
         <v>5.5E-2</v>
       </c>
@@ -2544,7 +2709,7 @@
         <f>SUM(D25:D27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="8">
         <v>0.06</v>
       </c>
@@ -2571,7 +2736,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="72"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="8">
         <f>G28+0.005</f>
         <v>6.5000000000000002E-2</v>
@@ -2599,7 +2764,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="72"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="8">
         <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
@@ -2627,7 +2792,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="72"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="8">
         <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
@@ -2655,7 +2820,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="72"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="8">
         <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
@@ -2683,7 +2848,7 @@
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F33" s="72"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="8">
         <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
@@ -2711,7 +2876,7 @@
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F34" s="72"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="8">
         <v>0.09</v>
       </c>
@@ -2776,8 +2941,8 @@
   </sheetPr>
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2787,436 +2952,436 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B3" s="57"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B13" s="57"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B14" s="57"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B15" s="57"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3226,103 +3391,103 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3350,21 +3515,21 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3376,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <f>SUM(B3:B628)</f>
@@ -3392,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I4" t="e">
         <f>SUMPRODUCT(C3:C2166,B3:B2166)/I3</f>
@@ -3408,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I5" t="e">
         <f>I4*(1-DCF!P14)</f>
@@ -13028,7 +13193,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13158,8 +13323,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="74" t="s">
-        <v>318</v>
+      <c r="G10" s="70" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13167,33 +13332,33 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <f>VLOOKUP("Earnings Per Share USD",'Key Ratios'!$1:$1048576,4,FALSE)</f>
+        <f>VLOOKUP("Earnings Per Share USD",'Key Ratios'!$1:$1048576,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -13208,10 +13373,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13220,101 +13385,166 @@
     <col min="2" max="12" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H2" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7">
+        <f>O8</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="8"/>
-      <c r="H3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="9"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11">
-        <f>F4+(F2*F3)</f>
-        <v>0</v>
+      <c r="B4" s="11" t="e">
+        <f>DCF!P19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="H4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12">
-        <f>DCF!B7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="B6" s="13" t="e">
+        <f>P15</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8">
+        <f>DCF!B8</f>
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O7" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="77">
+        <f ca="1">'Growth Rates'!B1</f>
+        <v>2019</v>
+      </c>
+      <c r="Q7" s="77">
+        <f ca="1">'Growth Rates'!C1</f>
+        <v>2018</v>
+      </c>
+      <c r="R7" s="77">
+        <f ca="1">'Growth Rates'!D1</f>
+        <v>2017</v>
+      </c>
+      <c r="S7" s="77">
+        <f ca="1">'Growth Rates'!E1</f>
+        <v>2016</v>
+      </c>
+      <c r="T7" s="78">
+        <f ca="1">'Growth Rates'!F1</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="8">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="e">
         <f>B4-B7</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O8" s="90">
+        <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="79">
+        <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="79">
+        <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="79">
+        <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,5,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="79">
+        <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,6,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="80">
+        <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N10" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="O10" s="82"/>
+      <c r="P10" s="83"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="N11" s="84">
+        <f ca="1">P7</f>
+        <v>2019</v>
+      </c>
+      <c r="O11" t="s">
+        <v>320</v>
+      </c>
+      <c r="P11" s="85">
+        <f>IFERROR((P8/T8)^(1/5)-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -13347,12 +13577,22 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N12" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>320</v>
+      </c>
+      <c r="P12" s="85">
+        <f>IFERROR((O8/S8)^(1/5)-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8">
         <f>IF(B12&lt;=$B$5,$B$6,$B$7)</f>
@@ -13398,10 +13638,21 @@
         <f>B7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N13" s="84">
+        <f ca="1">P7</f>
+        <v>2019</v>
+      </c>
+      <c r="O13" t="s">
+        <v>321</v>
+      </c>
+      <c r="P13" s="85">
+        <f>IFERROR((P8/S8)^(1/4)-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
         <f>IF(B12&lt;=$B$5,$B$3*(1+$B$6),0)</f>
@@ -13447,73 +13698,90 @@
         <f>(HLOOKUP(B5,B12:K14,3)*(1+L13))/(B8)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N14" s="84">
+        <f ca="1">P7</f>
+        <v>2019</v>
+      </c>
+      <c r="O14" t="s">
+        <v>322</v>
+      </c>
+      <c r="P14" s="85">
+        <f>IFERROR((P8/R8)^(1/3)-1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="e">
         <f>B14/(1+$B$4)^B12</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15" s="1" t="e">
         <f t="shared" ref="C15:K15" si="2">C14/(1+$B$4)^C12</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L15" s="1" t="e">
         <f>L14/(1+B8)^B5</f>
         <v>#N/A</v>
       </c>
+      <c r="N15" s="87"/>
+      <c r="O15" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="89" t="e">
+        <f>AVERAGEIF(P11:P14,"&lt;&gt;0")</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B18" s="14" t="e">
         <f>SUM(B15:L15)</f>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="N10:P10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13537,16 +13805,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="D1" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="73"/>
+      <c r="A1" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="D1" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="74"/>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J1" s="23">
         <f>VLOOKUP("Tax Rate %", 'Key Ratios'!1:1048576,2,FALSE)/100</f>
@@ -13554,16 +13822,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="D3" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="73"/>
+      <c r="A3" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="D3" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="74"/>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J3" s="12">
         <f>VLOOKUP("Debt Issued",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
@@ -13572,21 +13840,21 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="22">
         <f>VLOOKUP("Net income available to common shareholders",'Income Statement'!A2:AE36,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <f>B4</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J4" s="12">
         <f>VLOOKUP("Debt Repayment",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
@@ -13595,21 +13863,21 @@
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="22">
         <f>VLOOKUP("Depreciation &amp; amortization",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(J3:J4)</f>
@@ -13618,14 +13886,14 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="22">
         <f>-'Change WC'!B18</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <f>B6</f>
@@ -13634,14 +13902,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="22">
         <f>VLOOKUP("Capital expenditure",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <f>B7</f>
@@ -13650,21 +13918,21 @@
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" s="22">
         <f>VLOOKUP("Interest Expense",'Income Statement'!A2:AE36,2,FALSE) * (1-J1)</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="12">
         <f>J5</f>
         <v>0</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J8" s="62">
         <f>MIN(B9,B16,B24,B34)</f>
@@ -13673,21 +13941,21 @@
     </row>
     <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="25">
         <f>SUM(B4:B8)</f>
         <v>0</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="24">
         <f>SUM(E4:E8)</f>
         <v>0</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J9" s="62">
         <f>MIN(E9,E18,E24,E36)</f>
@@ -13696,25 +13964,25 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="D11" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="73"/>
+      <c r="A11" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="74"/>
+      <c r="D11" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" s="22">
         <f>VLOOKUP("Operating Income",'Income Statement'!1:1048576,2,FALSE)*(1-J1)</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E12" s="21">
         <f>B12</f>
@@ -13723,14 +13991,14 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <f>B5</f>
@@ -13739,14 +14007,14 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <f>B6</f>
@@ -13755,14 +14023,14 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <f>B7</f>
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <f>B7</f>
@@ -13771,14 +14039,14 @@
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B16" s="25">
         <f>SUM(B12:B15)</f>
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <f>B8</f>
@@ -13787,7 +14055,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <f>E8</f>
@@ -13796,7 +14064,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E18" s="25">
         <f>SUM(E12:E17)</f>
@@ -13805,25 +14073,25 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="73"/>
-      <c r="D20" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="73"/>
+      <c r="A20" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="74"/>
+      <c r="D20" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" s="22">
         <f>VLOOKUP("Operating cash flow",'Cash Flow Statement'!1:1048576,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <f>B21</f>
@@ -13832,14 +14100,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" s="21">
         <f>B8</f>
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <f>B7</f>
@@ -13848,14 +14116,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="21">
         <f>B7</f>
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <f>E8</f>
@@ -13864,14 +14132,14 @@
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="25">
         <f>SUM(B21:B23)</f>
         <v>0</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E24" s="24">
         <f>SUM(E21:E23)</f>
@@ -13880,25 +14148,25 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="73"/>
-      <c r="D26" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="73"/>
+      <c r="A26" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="D26" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B27" s="21">
         <f>B12</f>
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E27" s="21">
         <f>B12</f>
@@ -13907,14 +14175,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <f>B5</f>
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <f>B5</f>
@@ -13923,14 +14191,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B29" s="12">
         <f>_xlfn.IFNA(VLOOKUP("Stock Compensation",'Cash Flow Statement'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <f>B29</f>
@@ -13939,14 +14207,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B30" s="12">
         <f>_xlfn.IFNA(VLOOKUP(A30,'Cash Flow Statement'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E30">
         <f>B30</f>
@@ -13955,14 +14223,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B31" s="12">
         <f>_xlfn.IFNA(VLOOKUP("Deferred Income Taxes",'Cash Flow Statement'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <f>B31</f>
@@ -13971,14 +14239,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <f>B6</f>
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <f>B6</f>
@@ -13987,14 +14255,14 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <f>B7</f>
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E33">
         <f>B7</f>
@@ -14003,14 +14271,14 @@
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B34" s="25">
         <f>SUM(B27:B33)</f>
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <f>B8</f>
@@ -14019,7 +14287,7 @@
     </row>
     <row r="35" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <f>E8</f>
@@ -14028,7 +14296,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E36" s="25">
         <f>SUM(E27:E35)</f>
@@ -14062,7 +14330,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14072,7 +14340,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="16">
         <f ca="1">YEAR(TODAY()) - 1</f>
@@ -14117,7 +14385,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="12">
         <f>VLOOKUP("Payout Ratio % *",'Key Ratios'!1:1048576,3,FALSE)</f>
@@ -14160,12 +14428,12 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12">
         <f>VLOOKUP("Return on Assets %",'Key Ratios'!$1:$1048576,3,FALSE)</f>
@@ -14208,12 +14476,12 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="12">
         <f>VLOOKUP("Return on Equity %",'Key Ratios'!$1:$1048576,3,FALSE)</f>
@@ -14258,7 +14526,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="12">
         <f>VLOOKUP("Return on Invested Capital %",'Key Ratios'!$1:$1048576,3,FALSE)</f>
@@ -14303,7 +14571,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="15">
         <f>1-(B2/100)</f>
@@ -14348,7 +14616,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" s="15">
         <f>B3/100</f>
@@ -14393,7 +14661,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" s="15">
         <f>B4/100</f>
@@ -14438,7 +14706,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="15">
         <f>B5/100</f>
@@ -14483,12 +14751,12 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M11" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" s="20">
         <f>(B8*B7)/(1-(B8*B7))</f>
@@ -14537,7 +14805,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="20">
         <f>(B9*B7)/(1-(B9*B7))</f>
@@ -14586,7 +14854,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B14" s="20">
         <f>B10*B7</f>
@@ -14635,18 +14903,18 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B18" s="8">
         <f>MIN(M12:M14)</f>
@@ -14710,12 +14978,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="27">
         <f>'Balance Sheet (Annual)'!B2</f>
@@ -14728,7 +14996,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="12">
         <f>VLOOKUP(A4,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14741,7 +15009,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="12">
         <f>VLOOKUP(A5,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14754,7 +15022,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="12">
         <f>VLOOKUP(A6,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14767,7 +15035,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7" s="24">
         <f>SUM(B4:B6)</f>
@@ -14781,12 +15049,12 @@
     <row r="8" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="12">
         <f>VLOOKUP(A10,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14799,7 +15067,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B11" s="12">
         <f>_xlfn.IFNA(VLOOKUP(A11,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
@@ -14812,7 +15080,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="12">
         <f>_xlfn.IFNA(VLOOKUP(A12,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
@@ -14825,7 +15093,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B13" s="12">
         <f>_xlfn.IFNA(VLOOKUP(A13,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
@@ -14838,7 +15106,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="12">
         <f>VLOOKUP(A14,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
@@ -14851,7 +15119,7 @@
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B15" s="24">
         <f>SUM(B10:B14)</f>
@@ -14865,7 +15133,7 @@
     <row r="16" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B17" s="28">
         <f>B7-B15</f>
@@ -14878,7 +15146,7 @@
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" s="26">
         <f>B17-C17</f>
@@ -14909,127 +15177,127 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -15055,227 +15323,227 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -15301,200 +15569,200 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A0D7B3-E5B2-49AA-9AB2-353BAA3DC267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33228BEB-3FA6-4ED0-BC17-8BBD18A3F62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -1604,18 +1604,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1632,6 +1620,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1641,15 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1947,8 +1947,8 @@
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2572,15 +2572,15 @@
         <v>116</v>
       </c>
       <c r="G24" s="50"/>
-      <c r="H24" s="72" t="s">
+      <c r="H24" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
@@ -2597,15 +2597,15 @@
       <c r="D25" s="46">
         <v>0.8</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
@@ -2622,7 +2622,7 @@
       <c r="D26" s="46">
         <v>0.2</v>
       </c>
-      <c r="F26" s="73" t="s">
+      <c r="F26" s="86" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="51" t="e">
@@ -2666,7 +2666,7 @@
       <c r="D27" s="46">
         <v>0</v>
       </c>
-      <c r="F27" s="73"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="8">
         <v>5.5E-2</v>
       </c>
@@ -2709,7 +2709,7 @@
         <f>SUM(D25:D27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="86"/>
       <c r="G28" s="8">
         <v>0.06</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="73"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="8">
         <f>G28+0.005</f>
         <v>6.5000000000000002E-2</v>
@@ -2764,7 +2764,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="73"/>
+      <c r="F30" s="86"/>
       <c r="G30" s="8">
         <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
@@ -2792,7 +2792,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="73"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="8">
         <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
@@ -2820,7 +2820,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="73"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="8">
         <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
@@ -2848,7 +2848,7 @@
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F33" s="73"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="8">
         <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F34" s="73"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="8">
         <v>0.09</v>
       </c>
@@ -13193,7 +13193,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13247,7 +13247,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="4">
-        <f>VLOOKUP("Long-term debt", 'Balance Sheet (Annual)'!A1:BH299, 2, FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP("Long-term debt", 'Balance Sheet (Annual)'!A1:BH299, 2, FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13282,7 +13282,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="4">
-        <f>-VLOOKUP("Short-Term Investments", 'Balance Sheet (Annual)'!A1:DJ60, 2,FALSE)</f>
+        <f>-_xlfn.IFNA(VLOOKUP("Short-Term Investments", 'Balance Sheet (Annual)'!A1:DJ60, 2,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -13375,8 +13375,8 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13421,10 +13421,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -13447,26 +13447,26 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="O7" s="76" t="s">
+      <c r="O7" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="77">
+      <c r="P7" s="73">
         <f ca="1">'Growth Rates'!B1</f>
         <v>2019</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="73">
         <f ca="1">'Growth Rates'!C1</f>
         <v>2018</v>
       </c>
-      <c r="R7" s="77">
+      <c r="R7" s="73">
         <f ca="1">'Growth Rates'!D1</f>
         <v>2017</v>
       </c>
-      <c r="S7" s="77">
+      <c r="S7" s="73">
         <f ca="1">'Growth Rates'!E1</f>
         <v>2016</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T7" s="74">
         <f ca="1">'Growth Rates'!F1</f>
         <v>2015</v>
       </c>
@@ -13482,27 +13482,27 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="O8" s="90">
+      <c r="O8" s="83">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="79">
+      <c r="P8" s="75">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="79">
+      <c r="Q8" s="75">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="79">
+      <c r="R8" s="75">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="79">
+      <c r="S8" s="75">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="80">
+      <c r="T8" s="76">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,7,FALSE)</f>
         <v>0</v>
       </c>
@@ -13511,11 +13511,11 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="83"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="89"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -13530,14 +13530,14 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="84">
+      <c r="N11" s="77">
         <f ca="1">P7</f>
         <v>2019</v>
       </c>
       <c r="O11" t="s">
         <v>320</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="78">
         <f>IFERROR((P8/T8)^(1/5)-1,0)</f>
         <v>0</v>
       </c>
@@ -13579,13 +13579,13 @@
       <c r="L12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="86" t="s">
+      <c r="N12" s="79" t="s">
         <v>126</v>
       </c>
       <c r="O12" t="s">
         <v>320</v>
       </c>
-      <c r="P12" s="85">
+      <c r="P12" s="78">
         <f>IFERROR((O8/S8)^(1/5)-1,0)</f>
         <v>0</v>
       </c>
@@ -13638,14 +13638,14 @@
         <f>B7</f>
         <v>0</v>
       </c>
-      <c r="N13" s="84">
+      <c r="N13" s="77">
         <f ca="1">P7</f>
         <v>2019</v>
       </c>
       <c r="O13" t="s">
         <v>321</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="78">
         <f>IFERROR((P8/S8)^(1/4)-1,0)</f>
         <v>0</v>
       </c>
@@ -13698,14 +13698,14 @@
         <f>(HLOOKUP(B5,B12:K14,3)*(1+L13))/(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="84">
+      <c r="N14" s="77">
         <f ca="1">P7</f>
         <v>2019</v>
       </c>
       <c r="O14" t="s">
         <v>322</v>
       </c>
-      <c r="P14" s="85">
+      <c r="P14" s="78">
         <f>IFERROR((P8/R8)^(1/3)-1,0)</f>
         <v>0</v>
       </c>
@@ -13758,11 +13758,11 @@
         <f>L14/(1+B8)^B5</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="87"/>
-      <c r="O15" s="88" t="s">
+      <c r="N15" s="80"/>
+      <c r="O15" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="89" t="e">
+      <c r="P15" s="82" t="e">
         <f>AVERAGEIF(P11:P14,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
@@ -13805,14 +13805,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="D1" s="74" t="s">
+      <c r="B1" s="90"/>
+      <c r="D1" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="90"/>
       <c r="I1" t="s">
         <v>61</v>
       </c>
@@ -13822,14 +13822,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="D3" s="74" t="s">
+      <c r="B3" s="90"/>
+      <c r="D3" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="74"/>
+      <c r="E3" s="90"/>
       <c r="I3" t="s">
         <v>63</v>
       </c>
@@ -13964,14 +13964,14 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="D11" s="74" t="s">
+      <c r="B11" s="90"/>
+      <c r="D11" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="74"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -14073,14 +14073,14 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="D20" s="74" t="s">
+      <c r="B20" s="90"/>
+      <c r="D20" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="74"/>
+      <c r="E20" s="90"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -14148,14 +14148,14 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="D26" s="74" t="s">
+      <c r="B26" s="90"/>
+      <c r="D26" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="74"/>
+      <c r="E26" s="90"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33228BEB-3FA6-4ED0-BC17-8BBD18A3F62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E10A669-9875-4FE4-8876-DA2FBA41C6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Desktop\Autovauler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E10A669-9875-4FE4-8876-DA2FBA41C6F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163B643-F7A1-467D-BDED-ED732CCC5652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,8 @@
     <sheet name="Cash Flow Statement" sheetId="10" r:id="rId9"/>
     <sheet name="Key Ratios" sheetId="11" r:id="rId10"/>
     <sheet name="Debt Template" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="16" r:id="rId12"/>
+    <sheet name="Credit Ratings" sheetId="16" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="10">'Debt Template'!$A$1:$C$21</definedName>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="375">
   <si>
     <t>EPS</t>
   </si>
@@ -1095,13 +1096,169 @@
   </si>
   <si>
     <t>3-Yr CAGR</t>
+  </si>
+  <si>
+    <t>Aaa/AAA</t>
+  </si>
+  <si>
+    <t>Aa2/AA</t>
+  </si>
+  <si>
+    <t>A1/A+</t>
+  </si>
+  <si>
+    <t>A2/A</t>
+  </si>
+  <si>
+    <t>A3/A-</t>
+  </si>
+  <si>
+    <t>Baa2/BBB</t>
+  </si>
+  <si>
+    <t>Ba1/BB+</t>
+  </si>
+  <si>
+    <t>Ba2/BB</t>
+  </si>
+  <si>
+    <t>B1/B+</t>
+  </si>
+  <si>
+    <t>B2/B</t>
+  </si>
+  <si>
+    <t>B3/B-</t>
+  </si>
+  <si>
+    <t>Caa/CCC</t>
+  </si>
+  <si>
+    <t>Ca2/CC</t>
+  </si>
+  <si>
+    <t>C2/C</t>
+  </si>
+  <si>
+    <t>D2/D</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>As of January 2020</t>
+  </si>
+  <si>
+    <t>http://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/ratings.htm</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>BB+</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Caa</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ca2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>≤ to</t>
+  </si>
+  <si>
+    <t>IC ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1109,8 +1266,9 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,8 +1349,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,6 +1422,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDFDFD"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1497,7 +1667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1505,8 +1675,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1652,12 +1823,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Heading 4" xfId="4" builtinId="19"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{82881477-00B8-438C-A32E-80C5A8064DF8}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -1948,7 +2126,7 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2211,7 +2389,7 @@
         <v>94</v>
       </c>
       <c r="Z8" s="65" t="e">
-        <f>Z7*(1-P14)</f>
+        <f>Z7*(1-Z11)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2306,6 +2484,13 @@
       <c r="P11" s="22">
         <f>VLOOKUP("Shares Mil", 'Key Ratios'!1:1048576,2,FALSE)</f>
         <v>0</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z11" s="94">
+        <f>'Credit Ratings'!B21+DCF!P17</f>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -2941,7 +3126,7 @@
   </sheetPr>
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
@@ -3503,7 +3688,7 @@
   <dimension ref="A1:I1592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13175,6 +13360,620 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CD4781-495B-48B1-BD33-3C08F97137F0}">
+  <dimension ref="A2:AD32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="95"/>
+    <col min="6" max="6" width="66.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" t="s">
+        <v>340</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="N2" s="91" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="95">
+        <v>-100000</v>
+      </c>
+      <c r="B3" s="95">
+        <v>0.19999900000000001</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="96">
+        <v>0.1512</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="M3" s="92" t="s">
+        <v>343</v>
+      </c>
+      <c r="N3" s="93">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="95">
+        <v>0.64999899999999999</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="96">
+        <v>0.1134</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="96"/>
+      <c r="M4" s="92" t="s">
+        <v>342</v>
+      </c>
+      <c r="N4" s="93">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="95">
+        <v>0.65</v>
+      </c>
+      <c r="B5" s="95">
+        <v>0.79999900000000002</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="96">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
+      <c r="M5" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="N5" s="93">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="P5" s="95">
+        <v>8.5</v>
+      </c>
+      <c r="Q5" s="95">
+        <v>6.5</v>
+      </c>
+      <c r="R5" s="95">
+        <v>5.5</v>
+      </c>
+      <c r="S5" s="95">
+        <v>4.25</v>
+      </c>
+      <c r="T5" s="95">
+        <v>3</v>
+      </c>
+      <c r="U5" s="95">
+        <v>2.5</v>
+      </c>
+      <c r="V5" s="95">
+        <v>2.25</v>
+      </c>
+      <c r="W5" s="95">
+        <v>2</v>
+      </c>
+      <c r="X5" s="95">
+        <v>1.75</v>
+      </c>
+      <c r="Y5" s="95">
+        <v>1.5</v>
+      </c>
+      <c r="Z5" s="95">
+        <v>1.25</v>
+      </c>
+      <c r="AA5" s="95">
+        <v>0.8</v>
+      </c>
+      <c r="AB5" s="95">
+        <v>0.65</v>
+      </c>
+      <c r="AC5" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="AD5" s="95">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="95">
+        <v>0.8</v>
+      </c>
+      <c r="B6" s="95">
+        <v>1.2499990000000001</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="96">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
+      <c r="M6" s="92" t="s">
+        <v>344</v>
+      </c>
+      <c r="N6" s="93">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="95">
+        <v>1.25</v>
+      </c>
+      <c r="B7" s="95">
+        <v>1.4999990000000001</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="96">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="96"/>
+      <c r="M7" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="N7" s="93">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95">
+        <v>1.5</v>
+      </c>
+      <c r="B8" s="95">
+        <v>1.7499990000000001</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="96">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="E8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
+      <c r="M8" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="N8" s="93">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="95">
+        <v>1.75</v>
+      </c>
+      <c r="B9" s="95">
+        <v>1.9999990000000001</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="96">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+      <c r="M9" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="N9" s="93">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95">
+        <v>2</v>
+      </c>
+      <c r="B10" s="95">
+        <v>2.2499999000000002</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="96">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+      <c r="M10" s="92" t="s">
+        <v>348</v>
+      </c>
+      <c r="N10" s="93">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="95">
+        <v>2.25</v>
+      </c>
+      <c r="B11" s="95">
+        <v>2.2499989999999999</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="96">
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="M11" s="92" t="s">
+        <v>351</v>
+      </c>
+      <c r="N11" s="93">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="95">
+        <v>2.5</v>
+      </c>
+      <c r="B12" s="95">
+        <v>2.9999989999999999</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="96">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="E12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="M12" s="92" t="s">
+        <v>350</v>
+      </c>
+      <c r="N12" s="93">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="95">
+        <v>3</v>
+      </c>
+      <c r="B13" s="95">
+        <v>4.2499989999999999</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="96">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="M13" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="N13" s="93">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="95">
+        <v>4.25</v>
+      </c>
+      <c r="B14" s="95">
+        <v>5.4999989999999999</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="96">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="M14" s="92" t="s">
+        <v>352</v>
+      </c>
+      <c r="N14" s="93">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="95">
+        <v>5.5</v>
+      </c>
+      <c r="B15" s="95">
+        <v>6.4999989999999999</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="96">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="M15" s="92" t="s">
+        <v>355</v>
+      </c>
+      <c r="N15" s="93">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="95">
+        <v>6.5</v>
+      </c>
+      <c r="B16" s="95">
+        <v>8.4999990000000007</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="96">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="M16" s="92" t="s">
+        <v>354</v>
+      </c>
+      <c r="N16" s="93">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="95">
+        <v>8.5</v>
+      </c>
+      <c r="B17" s="95">
+        <v>100000</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="96">
+        <v>6.3E-3</v>
+      </c>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="M17" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="N17" s="93">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="M18" s="92" t="s">
+        <v>356</v>
+      </c>
+      <c r="N18" s="93">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M19" s="92" t="s">
+        <v>358</v>
+      </c>
+      <c r="N19" s="93">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="95">
+        <f>VLOOKUP("Interest Coverage",'Key Ratios'!$1:$1048576,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="95"/>
+      <c r="M20" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="N20" s="93">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="66">
+        <f>LOOKUP(B20,A3:A17,D3:D17)</f>
+        <v>0.1512</v>
+      </c>
+      <c r="M21" s="92" t="s">
+        <v>361</v>
+      </c>
+      <c r="N21" s="93">
+        <v>4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="95"/>
+      <c r="M22" s="92" t="s">
+        <v>360</v>
+      </c>
+      <c r="N22" s="93">
+        <v>4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M23" s="92" t="s">
+        <v>363</v>
+      </c>
+      <c r="N23" s="93">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="95"/>
+      <c r="M24" s="92" t="s">
+        <v>362</v>
+      </c>
+      <c r="N24" s="93">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="95">
+        <f>VLOOKUP("Interest Coverage",'Key Ratios'!$1:$1048576,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="N25" s="93">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="95"/>
+      <c r="M26" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="N26" s="93">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M27" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="N27" s="93">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="95"/>
+      <c r="M28" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="N28" s="93">
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M29" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="N29" s="93">
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="95"/>
+      <c r="M30" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="N30" s="93">
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M31" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="N31" s="93">
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>370</v>
+      </c>
+      <c r="N32" s="93">
+        <v>0.1512</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D17">
+    <sortCondition ref="A3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{16845EF1-6CF4-48BC-A44A-9BBAC714EAAE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2793E5D5-AD98-46DC-9A22-EE562AAAE814}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14330,7 +15129,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Desktop\Autovauler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163B643-F7A1-467D-BDED-ED732CCC5652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE23274-9979-47DE-B54E-A81ADD57FE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1802,6 +1796,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1823,12 +1823,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -2488,7 +2482,7 @@
       <c r="Y11" t="s">
         <v>106</v>
       </c>
-      <c r="Z11" s="94">
+      <c r="Z11" s="87">
         <f>'Credit Ratings'!B21+DCF!P17</f>
         <v>0.1512</v>
       </c>
@@ -2757,15 +2751,15 @@
         <v>116</v>
       </c>
       <c r="G24" s="50"/>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
@@ -2782,15 +2776,15 @@
       <c r="D25" s="46">
         <v>0.8</v>
       </c>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
@@ -2807,7 +2801,7 @@
       <c r="D26" s="46">
         <v>0.2</v>
       </c>
-      <c r="F26" s="86" t="s">
+      <c r="F26" s="92" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="51" t="e">
@@ -2851,7 +2845,7 @@
       <c r="D27" s="46">
         <v>0</v>
       </c>
-      <c r="F27" s="86"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="8">
         <v>5.5E-2</v>
       </c>
@@ -2894,7 +2888,7 @@
         <f>SUM(D25:D27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="86"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="8">
         <v>0.06</v>
       </c>
@@ -2921,7 +2915,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="86"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="8">
         <f>G28+0.005</f>
         <v>6.5000000000000002E-2</v>
@@ -2949,7 +2943,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="86"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="8">
         <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
@@ -2977,7 +2971,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="86"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="8">
         <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
@@ -3005,7 +2999,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="86"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="8">
         <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
@@ -3033,7 +3027,7 @@
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F33" s="86"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="8">
         <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
@@ -3061,7 +3055,7 @@
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F34" s="86"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="8">
         <v>0.09</v>
       </c>
@@ -13369,483 +13363,483 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="95"/>
+    <col min="5" max="5" width="8.88671875" style="88"/>
     <col min="6" max="6" width="66.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="84" t="s">
         <v>339</v>
       </c>
       <c r="F2" t="s">
         <v>340</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="N2" s="84" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="95">
+      <c r="A3" s="88">
         <v>-100000</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="88">
         <v>0.19999900000000001</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="96">
+      <c r="D3" s="89">
         <v>0.1512</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="M3" s="92" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="M3" s="85" t="s">
         <v>343</v>
       </c>
-      <c r="N3" s="93">
+      <c r="N3" s="86">
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95">
+    <row r="4" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88">
         <v>0.2</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="88">
         <v>0.64999899999999999</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="96">
+      <c r="D4" s="89">
         <v>0.1134</v>
       </c>
-      <c r="E4" s="95"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="9"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
-      <c r="M4" s="92" t="s">
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="M4" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="86">
         <v>6.3E-3</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="95">
+      <c r="A5" s="88">
         <v>0.65</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="88">
         <v>0.79999900000000002</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="96">
+      <c r="D5" s="89">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
-      <c r="M5" s="92" t="s">
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="89"/>
+      <c r="M5" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="N5" s="93">
+      <c r="N5" s="86">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="P5" s="95">
+      <c r="P5" s="88">
         <v>8.5</v>
       </c>
-      <c r="Q5" s="95">
+      <c r="Q5" s="88">
         <v>6.5</v>
       </c>
-      <c r="R5" s="95">
+      <c r="R5" s="88">
         <v>5.5</v>
       </c>
-      <c r="S5" s="95">
+      <c r="S5" s="88">
         <v>4.25</v>
       </c>
-      <c r="T5" s="95">
+      <c r="T5" s="88">
         <v>3</v>
       </c>
-      <c r="U5" s="95">
+      <c r="U5" s="88">
         <v>2.5</v>
       </c>
-      <c r="V5" s="95">
+      <c r="V5" s="88">
         <v>2.25</v>
       </c>
-      <c r="W5" s="95">
+      <c r="W5" s="88">
         <v>2</v>
       </c>
-      <c r="X5" s="95">
+      <c r="X5" s="88">
         <v>1.75</v>
       </c>
-      <c r="Y5" s="95">
+      <c r="Y5" s="88">
         <v>1.5</v>
       </c>
-      <c r="Z5" s="95">
+      <c r="Z5" s="88">
         <v>1.25</v>
       </c>
-      <c r="AA5" s="95">
+      <c r="AA5" s="88">
         <v>0.8</v>
       </c>
-      <c r="AB5" s="95">
+      <c r="AB5" s="88">
         <v>0.65</v>
       </c>
-      <c r="AC5" s="95">
+      <c r="AC5" s="88">
         <v>0.2</v>
       </c>
-      <c r="AD5" s="95">
+      <c r="AD5" s="88">
         <v>-100000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95">
+    <row r="6" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="88">
         <v>0.8</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="88">
         <v>1.2499990000000001</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="89">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
-      <c r="M6" s="92" t="s">
+      <c r="E6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="89"/>
+      <c r="M6" s="85" t="s">
         <v>344</v>
       </c>
-      <c r="N6" s="93">
+      <c r="N6" s="86">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="95">
+      <c r="A7" s="88">
         <v>1.25</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="88">
         <v>1.4999990000000001</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="89">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="M7" s="92" t="s">
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
+      <c r="M7" s="85" t="s">
         <v>347</v>
       </c>
-      <c r="N7" s="93">
+      <c r="N7" s="86">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95">
+    <row r="8" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88">
         <v>1.5</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="88">
         <v>1.7499990000000001</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="88" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="89">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="M8" s="92" t="s">
+      <c r="E8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="89"/>
+      <c r="M8" s="85" t="s">
         <v>346</v>
       </c>
-      <c r="N8" s="93">
+      <c r="N8" s="86">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="95">
+      <c r="A9" s="88">
         <v>1.75</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="88">
         <v>1.9999990000000001</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="89">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="96"/>
-      <c r="M9" s="92" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="M9" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="N9" s="93">
+      <c r="N9" s="86">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95">
+    <row r="10" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="88">
         <v>2</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="88">
         <v>2.2499999000000002</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="88" t="s">
         <v>330</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="89">
         <v>2.4E-2</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="M10" s="92" t="s">
+      <c r="E10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="M10" s="85" t="s">
         <v>348</v>
       </c>
-      <c r="N10" s="93">
+      <c r="N10" s="86">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="95">
+      <c r="A11" s="88">
         <v>2.25</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="88">
         <v>2.2499989999999999</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="96">
+      <c r="D11" s="89">
         <v>0.02</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="M11" s="92" t="s">
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="M11" s="85" t="s">
         <v>351</v>
       </c>
-      <c r="N11" s="93">
+      <c r="N11" s="86">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95">
+    <row r="12" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="88">
         <v>2.5</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="88">
         <v>2.9999989999999999</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="88" t="s">
         <v>328</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="89">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="M12" s="92" t="s">
+      <c r="E12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="M12" s="85" t="s">
         <v>350</v>
       </c>
-      <c r="N12" s="93">
+      <c r="N12" s="86">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="95">
+      <c r="A13" s="88">
         <v>3</v>
       </c>
-      <c r="B13" s="95">
+      <c r="B13" s="88">
         <v>4.2499989999999999</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="88" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="89">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="M13" s="92" t="s">
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="M13" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="N13" s="93">
+      <c r="N13" s="86">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95">
+    <row r="14" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="88">
         <v>4.25</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="88">
         <v>5.4999989999999999</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="88" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="89">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="M14" s="92" t="s">
+      <c r="E14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="M14" s="85" t="s">
         <v>352</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="86">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="95">
+      <c r="A15" s="88">
         <v>5.5</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="88">
         <v>6.4999989999999999</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="89">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="M15" s="92" t="s">
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="M15" s="85" t="s">
         <v>355</v>
       </c>
-      <c r="N15" s="93">
+      <c r="N15" s="86">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="95">
+    <row r="16" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="88">
         <v>6.5</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="88">
         <v>8.4999990000000007</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="D16" s="96">
+      <c r="D16" s="89">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="M16" s="92" t="s">
+      <c r="E16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="M16" s="85" t="s">
         <v>354</v>
       </c>
-      <c r="N16" s="93">
+      <c r="N16" s="86">
         <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="95">
+      <c r="A17" s="88">
         <v>8.5</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="88">
         <v>100000</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="D17" s="96">
+      <c r="D17" s="89">
         <v>6.3E-3</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="M17" s="92" t="s">
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="M17" s="85" t="s">
         <v>357</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="86">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="M18" s="92" t="s">
+    <row r="18" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="M18" s="85" t="s">
         <v>356</v>
       </c>
-      <c r="N18" s="93">
+      <c r="N18" s="86">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M19" s="92" t="s">
+      <c r="M19" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="N19" s="93">
+      <c r="N19" s="86">
         <v>3.5099999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+    <row r="20" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85" t="s">
         <v>374</v>
       </c>
-      <c r="B20" s="95">
+      <c r="B20" s="88">
         <f>VLOOKUP("Interest Coverage",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="M20" s="92" t="s">
+      <c r="E20" s="88"/>
+      <c r="M20" s="85" t="s">
         <v>359</v>
       </c>
-      <c r="N20" s="93">
+      <c r="N20" s="86">
         <v>3.5099999999999999E-2</v>
       </c>
     </row>
@@ -13857,99 +13851,99 @@
         <f>LOOKUP(B20,A3:A17,D3:D17)</f>
         <v>0.1512</v>
       </c>
-      <c r="M21" s="92" t="s">
+      <c r="M21" s="85" t="s">
         <v>361</v>
       </c>
-      <c r="N21" s="93">
+      <c r="N21" s="86">
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="95"/>
-      <c r="M22" s="92" t="s">
+    <row r="22" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="88"/>
+      <c r="M22" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="N22" s="93">
+      <c r="N22" s="86">
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M23" s="92" t="s">
+      <c r="M23" s="85" t="s">
         <v>363</v>
       </c>
-      <c r="N23" s="93">
+      <c r="N23" s="86">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="95"/>
-      <c r="M24" s="92" t="s">
+    <row r="24" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="88"/>
+      <c r="M24" s="85" t="s">
         <v>362</v>
       </c>
-      <c r="N24" s="93">
+      <c r="N24" s="86">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="95">
+      <c r="B25" s="88">
         <f>VLOOKUP("Interest Coverage",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="92" t="s">
+      <c r="M25" s="85" t="s">
         <v>364</v>
       </c>
-      <c r="N25" s="93">
+      <c r="N25" s="86">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="95"/>
-      <c r="M26" s="92" t="s">
+    <row r="26" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="88"/>
+      <c r="M26" s="85" t="s">
         <v>365</v>
       </c>
-      <c r="N26" s="93">
+      <c r="N26" s="86">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M27" s="92" t="s">
+      <c r="M27" s="85" t="s">
         <v>367</v>
       </c>
-      <c r="N27" s="93">
+      <c r="N27" s="86">
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="95"/>
-      <c r="M28" s="92" t="s">
+    <row r="28" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="88"/>
+      <c r="M28" s="85" t="s">
         <v>366</v>
       </c>
-      <c r="N28" s="93">
+      <c r="N28" s="86">
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M29" s="92" t="s">
+      <c r="M29" s="85" t="s">
         <v>368</v>
       </c>
-      <c r="N29" s="93">
+      <c r="N29" s="86">
         <v>0.1134</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="95"/>
-      <c r="M30" s="92" t="s">
+    <row r="30" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="88"/>
+      <c r="M30" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="N30" s="93">
+      <c r="N30" s="86">
         <v>0.1134</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M31" s="92" t="s">
+      <c r="M31" s="85" t="s">
         <v>371</v>
       </c>
-      <c r="N31" s="93">
+      <c r="N31" s="86">
         <v>0.1512</v>
       </c>
     </row>
@@ -13957,7 +13951,7 @@
       <c r="M32" t="s">
         <v>370</v>
       </c>
-      <c r="N32" s="93">
+      <c r="N32" s="86">
         <v>0.1512</v>
       </c>
     </row>
@@ -14310,11 +14304,11 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N10" s="87" t="s">
+      <c r="N10" s="93" t="s">
         <v>319</v>
       </c>
-      <c r="O10" s="88"/>
-      <c r="P10" s="89"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -14592,7 +14586,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14604,14 +14598,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="D1" s="90" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="90"/>
+      <c r="E1" s="96"/>
       <c r="I1" t="s">
         <v>61</v>
       </c>
@@ -14621,14 +14615,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="D3" s="90" t="s">
+      <c r="B3" s="96"/>
+      <c r="D3" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="90"/>
+      <c r="E3" s="96"/>
       <c r="I3" t="s">
         <v>63</v>
       </c>
@@ -14763,14 +14757,14 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="D11" s="90" t="s">
+      <c r="B11" s="96"/>
+      <c r="D11" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="96"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -14872,14 +14866,14 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="D20" s="90" t="s">
+      <c r="B20" s="96"/>
+      <c r="D20" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="90"/>
+      <c r="E20" s="96"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -14947,14 +14941,14 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="D26" s="90" t="s">
+      <c r="B26" s="96"/>
+      <c r="D26" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="90"/>
+      <c r="E26" s="96"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -15766,7 +15760,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15798,11 +15792,11 @@
         <v>75</v>
       </c>
       <c r="B4" s="12">
-        <f>VLOOKUP(A4,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A4,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C4" s="12">
-        <f>VLOOKUP(A4,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A4,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15811,11 +15805,11 @@
         <v>76</v>
       </c>
       <c r="B5" s="12">
-        <f>VLOOKUP(A5,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A5,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C5" s="12">
-        <f>VLOOKUP(A5,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A5,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15824,11 +15818,11 @@
         <v>77</v>
       </c>
       <c r="B6" s="12">
-        <f>VLOOKUP(A6,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A6,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C6" s="12">
-        <f>VLOOKUP(A6,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A6,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15856,11 +15850,11 @@
         <v>81</v>
       </c>
       <c r="B10" s="12">
-        <f>VLOOKUP(A10,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A10,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C10" s="12">
-        <f>VLOOKUP(A10,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A10,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15908,11 +15902,11 @@
         <v>84</v>
       </c>
       <c r="B14" s="12">
-        <f>VLOOKUP(A14,'Balance Sheet (Annual)'!1:1048576,2,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A14,'Balance Sheet (Annual)'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="C14" s="12">
-        <f>VLOOKUP(A14,'Balance Sheet (Annual)'!1:1048576,3,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A14,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE23274-9979-47DE-B54E-A81ADD57FE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D38B00-3041-4190-99A5-E50FBE7DC366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="376">
   <si>
     <t>EPS</t>
   </si>
@@ -1077,9 +1077,6 @@
     <t>P/S</t>
   </si>
   <si>
-    <t>EV</t>
-  </si>
-  <si>
     <t>Compunded Annual Growth Rate</t>
   </si>
   <si>
@@ -1246,6 +1243,12 @@
   </si>
   <si>
     <t>IC ratio</t>
+  </si>
+  <si>
+    <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>Still need to automate:</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1674,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1802,6 +1805,7 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2119,8 +2123,8 @@
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2751,15 +2755,15 @@
         <v>116</v>
       </c>
       <c r="G24" s="50"/>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
@@ -2776,23 +2780,23 @@
       <c r="D25" s="46">
         <v>0.8</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="43">
-        <f>Multiples!A8</f>
-        <v>0</v>
+      <c r="B26" s="43" t="e">
+        <f>Multiples!H19</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C26" s="45" t="e">
         <f>B26/P12-1</f>
@@ -2801,7 +2805,7 @@
       <c r="D26" s="46">
         <v>0.2</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="93" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="51" t="e">
@@ -2845,7 +2849,7 @@
       <c r="D27" s="46">
         <v>0</v>
       </c>
-      <c r="F27" s="92"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="8">
         <v>5.5E-2</v>
       </c>
@@ -2888,7 +2892,7 @@
         <f>SUM(D25:D27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="92"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="8">
         <v>0.06</v>
       </c>
@@ -2915,7 +2919,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="92"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="8">
         <f>G28+0.005</f>
         <v>6.5000000000000002E-2</v>
@@ -2943,7 +2947,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="92"/>
+      <c r="F30" s="93"/>
       <c r="G30" s="8">
         <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
@@ -2971,7 +2975,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="92"/>
+      <c r="F31" s="93"/>
       <c r="G31" s="8">
         <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
@@ -2999,7 +3003,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="92"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="8">
         <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
@@ -3027,7 +3031,7 @@
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F33" s="92"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="8">
         <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
@@ -3055,7 +3059,7 @@
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F34" s="92"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="8">
         <v>0.09</v>
       </c>
@@ -3120,8 +3124,8 @@
   </sheetPr>
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13369,25 +13373,25 @@
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>373</v>
-      </c>
       <c r="C2" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="F2" t="s">
         <v>339</v>
       </c>
-      <c r="F2" t="s">
-        <v>340</v>
-      </c>
       <c r="M2" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="N2" s="84" t="s">
         <v>338</v>
-      </c>
-      <c r="N2" s="84" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -13398,20 +13402,20 @@
         <v>0.19999900000000001</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="89">
         <v>0.1512</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H3" s="88"/>
       <c r="I3" s="88"/>
       <c r="J3" s="88"/>
       <c r="K3" s="88"/>
       <c r="M3" s="85" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N3" s="86">
         <v>6.3E-3</v>
@@ -13425,7 +13429,7 @@
         <v>0.64999899999999999</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D4" s="89">
         <v>0.1134</v>
@@ -13437,7 +13441,7 @@
       <c r="J4" s="88"/>
       <c r="K4" s="89"/>
       <c r="M4" s="85" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N4" s="86">
         <v>6.3E-3</v>
@@ -13451,7 +13455,7 @@
         <v>0.79999900000000002</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" s="89">
         <v>8.6400000000000005E-2</v>
@@ -13461,7 +13465,7 @@
       <c r="J5" s="88"/>
       <c r="K5" s="89"/>
       <c r="M5" s="85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N5" s="86">
         <v>7.7999999999999996E-3</v>
@@ -13520,7 +13524,7 @@
         <v>1.2499990000000001</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D6" s="89">
         <v>8.2000000000000003E-2</v>
@@ -13531,7 +13535,7 @@
       <c r="J6" s="88"/>
       <c r="K6" s="89"/>
       <c r="M6" s="85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N6" s="86">
         <v>7.7999999999999996E-3</v>
@@ -13545,7 +13549,7 @@
         <v>1.4999990000000001</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D7" s="89">
         <v>5.1499999999999997E-2</v>
@@ -13555,7 +13559,7 @@
       <c r="J7" s="88"/>
       <c r="K7" s="89"/>
       <c r="M7" s="85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N7" s="86">
         <v>9.7999999999999997E-3</v>
@@ -13569,7 +13573,7 @@
         <v>1.7499990000000001</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D8" s="89">
         <v>4.2099999999999999E-2</v>
@@ -13580,7 +13584,7 @@
       <c r="J8" s="88"/>
       <c r="K8" s="89"/>
       <c r="M8" s="85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N8" s="86">
         <v>9.7999999999999997E-3</v>
@@ -13594,7 +13598,7 @@
         <v>1.9999990000000001</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" s="89">
         <v>3.5099999999999999E-2</v>
@@ -13604,7 +13608,7 @@
       <c r="J9" s="88"/>
       <c r="K9" s="89"/>
       <c r="M9" s="85" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N9" s="86">
         <v>1.0800000000000001E-2</v>
@@ -13618,7 +13622,7 @@
         <v>2.2499999000000002</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="89">
         <v>2.4E-2</v>
@@ -13629,7 +13633,7 @@
       <c r="J10" s="88"/>
       <c r="K10" s="89"/>
       <c r="M10" s="85" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N10" s="86">
         <v>1.0800000000000001E-2</v>
@@ -13643,7 +13647,7 @@
         <v>2.2499989999999999</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D11" s="89">
         <v>0.02</v>
@@ -13653,7 +13657,7 @@
       <c r="J11" s="88"/>
       <c r="K11" s="89"/>
       <c r="M11" s="85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N11" s="86">
         <v>1.2200000000000001E-2</v>
@@ -13667,7 +13671,7 @@
         <v>2.9999989999999999</v>
       </c>
       <c r="C12" s="88" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" s="89">
         <v>1.5599999999999999E-2</v>
@@ -13678,7 +13682,7 @@
       <c r="J12" s="88"/>
       <c r="K12" s="89"/>
       <c r="M12" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N12" s="86">
         <v>1.2200000000000001E-2</v>
@@ -13692,7 +13696,7 @@
         <v>4.2499989999999999</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D13" s="89">
         <v>1.2200000000000001E-2</v>
@@ -13702,7 +13706,7 @@
       <c r="J13" s="88"/>
       <c r="K13" s="89"/>
       <c r="M13" s="85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N13" s="86">
         <v>1.5599999999999999E-2</v>
@@ -13716,7 +13720,7 @@
         <v>5.4999989999999999</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D14" s="89">
         <v>1.0800000000000001E-2</v>
@@ -13727,7 +13731,7 @@
       <c r="J14" s="88"/>
       <c r="K14" s="89"/>
       <c r="M14" s="85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N14" s="86">
         <v>1.5599999999999999E-2</v>
@@ -13741,7 +13745,7 @@
         <v>6.4999989999999999</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="89">
         <v>9.7999999999999997E-3</v>
@@ -13751,7 +13755,7 @@
       <c r="J15" s="88"/>
       <c r="K15" s="89"/>
       <c r="M15" s="85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N15" s="86">
         <v>0.02</v>
@@ -13765,7 +13769,7 @@
         <v>8.4999990000000007</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D16" s="89">
         <v>7.7999999999999996E-3</v>
@@ -13776,7 +13780,7 @@
       <c r="J16" s="88"/>
       <c r="K16" s="89"/>
       <c r="M16" s="85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N16" s="86">
         <v>0.02</v>
@@ -13790,7 +13794,7 @@
         <v>100000</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D17" s="89">
         <v>6.3E-3</v>
@@ -13800,7 +13804,7 @@
       <c r="J17" s="88"/>
       <c r="K17" s="89"/>
       <c r="M17" s="85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N17" s="86">
         <v>2.4E-2</v>
@@ -13813,7 +13817,7 @@
       <c r="J18" s="88"/>
       <c r="K18" s="89"/>
       <c r="M18" s="85" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N18" s="86">
         <v>2.4E-2</v>
@@ -13821,7 +13825,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M19" s="85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N19" s="86">
         <v>3.5099999999999999E-2</v>
@@ -13829,7 +13833,7 @@
     </row>
     <row r="20" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="88">
         <f>VLOOKUP("Interest Coverage",'Key Ratios'!$1:$1048576,3,FALSE)</f>
@@ -13837,7 +13841,7 @@
       </c>
       <c r="E20" s="88"/>
       <c r="M20" s="85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N20" s="86">
         <v>3.5099999999999999E-2</v>
@@ -13845,14 +13849,14 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B21" s="66">
         <f>LOOKUP(B20,A3:A17,D3:D17)</f>
         <v>0.1512</v>
       </c>
       <c r="M21" s="85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N21" s="86">
         <v>4.2099999999999999E-2</v>
@@ -13861,7 +13865,7 @@
     <row r="22" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E22" s="88"/>
       <c r="M22" s="85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N22" s="86">
         <v>4.2099999999999999E-2</v>
@@ -13869,7 +13873,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M23" s="85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N23" s="86">
         <v>5.1499999999999997E-2</v>
@@ -13878,7 +13882,7 @@
     <row r="24" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E24" s="88"/>
       <c r="M24" s="85" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N24" s="86">
         <v>5.1499999999999997E-2</v>
@@ -13890,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N25" s="86">
         <v>8.2000000000000003E-2</v>
@@ -13899,7 +13903,7 @@
     <row r="26" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E26" s="88"/>
       <c r="M26" s="85" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N26" s="86">
         <v>8.2000000000000003E-2</v>
@@ -13907,7 +13911,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M27" s="85" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N27" s="86">
         <v>8.6400000000000005E-2</v>
@@ -13916,7 +13920,7 @@
     <row r="28" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E28" s="88"/>
       <c r="M28" s="85" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N28" s="86">
         <v>8.6400000000000005E-2</v>
@@ -13924,7 +13928,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M29" s="85" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N29" s="86">
         <v>0.1134</v>
@@ -13933,7 +13937,7 @@
     <row r="30" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E30" s="88"/>
       <c r="M30" s="85" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N30" s="86">
         <v>0.1134</v>
@@ -13941,7 +13945,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M31" s="85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N31" s="86">
         <v>0.1512</v>
@@ -13949,7 +13953,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N32" s="86">
         <v>0.1512</v>
@@ -13983,10 +13987,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14064,7 +14068,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="e">
+        <f>(H13* VLOOKUP("Stockholders' equity",'Balance Sheet (Annual)'!1:1048576,2,FALSE))/DCF!P11</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -14080,7 +14087,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="e">
+        <f>(H14*VLOOKUP("Revenue USD Mil",'Key Ratios'!$1:$1048576,4,FALSE))/DCF!P11</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -14096,7 +14106,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="90" t="e">
+        <f>((H15*VLOOKUP("EBITDA",'Income Statement'!A2:AE36,2,FALSE))-H6)/DCF!P11</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>13</v>
@@ -14105,16 +14118,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G10" s="70" t="s">
         <v>314</v>
@@ -14146,12 +14149,31 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
-        <v>147</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="40" t="e">
+        <f>AVERAGE(A2:A7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -14304,11 +14326,11 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N10" s="93" t="s">
-        <v>319</v>
-      </c>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
+      <c r="N10" s="94" t="s">
+        <v>318</v>
+      </c>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -14328,7 +14350,7 @@
         <v>2019</v>
       </c>
       <c r="O11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P11" s="78">
         <f>IFERROR((P8/T8)^(1/5)-1,0)</f>
@@ -14376,7 +14398,7 @@
         <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P12" s="78">
         <f>IFERROR((O8/S8)^(1/5)-1,0)</f>
@@ -14436,7 +14458,7 @@
         <v>2019</v>
       </c>
       <c r="O13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P13" s="78">
         <f>IFERROR((P8/S8)^(1/4)-1,0)</f>
@@ -14496,7 +14518,7 @@
         <v>2019</v>
       </c>
       <c r="O14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P14" s="78">
         <f>IFERROR((P8/R8)^(1/3)-1,0)</f>
@@ -14585,8 +14607,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14598,14 +14620,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
       <c r="I1" t="s">
         <v>61</v>
       </c>
@@ -14615,14 +14637,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="D3" s="96" t="s">
+      <c r="B3" s="97"/>
+      <c r="D3" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="96"/>
+      <c r="E3" s="97"/>
       <c r="I3" t="s">
         <v>63</v>
       </c>
@@ -14757,14 +14779,14 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="D11" s="96" t="s">
+      <c r="B11" s="97"/>
+      <c r="D11" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -14866,14 +14888,14 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="D20" s="96" t="s">
+      <c r="B20" s="97"/>
+      <c r="D20" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="96"/>
+      <c r="E20" s="97"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -14941,14 +14963,14 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="D26" s="96" t="s">
+      <c r="B26" s="97"/>
+      <c r="D26" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="96"/>
+      <c r="E26" s="97"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -15123,7 +15145,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15760,7 +15782,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16105,8 +16127,8 @@
   </sheetPr>
   <dimension ref="A3:A47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Desktop\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D38B00-3041-4190-99A5-E50FBE7DC366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B3429-B4E2-4B20-A48C-AFCA53FAC7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="377">
   <si>
     <t>EPS</t>
   </si>
@@ -1249,6 +1249,9 @@
   </si>
   <si>
     <t>Still need to automate:</t>
+  </si>
+  <si>
+    <t>&lt;- Use CTRL+SHIFT+ENTER if modifying</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +1765,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1827,6 +1829,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="10" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -2123,8 +2126,8 @@
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2205,7 +2208,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="29"/>
       <c r="P3" s="36"/>
-      <c r="S3" s="67" t="s">
+      <c r="S3" s="66" t="s">
         <v>92</v>
       </c>
       <c r="T3" s="4">
@@ -2216,7 +2219,7 @@
         <v>310</v>
       </c>
       <c r="Z3">
-        <f>VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,2,FALSE)</f>
+        <f>_xlfn.IFNA(VLOOKUP("Short-term debt",'Balance Sheet (Annual)'!$A$1:$Z$48,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AA3">
@@ -2244,10 +2247,10 @@
         <v>53</v>
       </c>
       <c r="P4" s="36"/>
-      <c r="S4" s="67" t="s">
+      <c r="S4" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="T4" s="68" t="e">
+      <c r="T4" s="67" t="e">
         <f>SUMPRODUCT('Debt Template'!C3:C2166,'Debt Template'!B3:B2166)/T3</f>
         <v>#DIV/0!</v>
       </c>
@@ -2290,10 +2293,10 @@
         <f>AVERAGE(P2:P4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="67" t="s">
+      <c r="S5" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="T5" s="66" t="e">
+      <c r="T5" s="65" t="e">
         <f>T4 * (1-P14)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2386,9 +2389,9 @@
       <c r="Y8" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="65" t="e">
-        <f>Z7*(1-Z11)</f>
-        <v>#DIV/0!</v>
+      <c r="Z8" s="86">
+        <f>Z11*(1-P14)</f>
+        <v>0.1512</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -2486,7 +2489,7 @@
       <c r="Y11" t="s">
         <v>106</v>
       </c>
-      <c r="Z11" s="87">
+      <c r="Z11" s="86">
         <f>'Credit Ratings'!B21+DCF!P17</f>
         <v>0.1512</v>
       </c>
@@ -2755,15 +2758,15 @@
         <v>116</v>
       </c>
       <c r="G24" s="50"/>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
@@ -2780,15 +2783,15 @@
       <c r="D25" s="46">
         <v>0.8</v>
       </c>
-      <c r="H25" s="91" t="s">
+      <c r="H25" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
@@ -2805,7 +2808,7 @@
       <c r="D26" s="46">
         <v>0.2</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="92" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="51" t="e">
@@ -2849,7 +2852,7 @@
       <c r="D27" s="46">
         <v>0</v>
       </c>
-      <c r="F27" s="93"/>
+      <c r="F27" s="92"/>
       <c r="G27" s="8">
         <v>5.5E-2</v>
       </c>
@@ -2892,7 +2895,7 @@
         <f>SUM(D25:D27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="93"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="8">
         <v>0.06</v>
       </c>
@@ -2919,7 +2922,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="93"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="8">
         <f>G28+0.005</f>
         <v>6.5000000000000002E-2</v>
@@ -2947,7 +2950,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="93"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="8">
         <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
@@ -2975,7 +2978,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="93"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="8">
         <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
@@ -3003,7 +3006,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="93"/>
+      <c r="F32" s="92"/>
       <c r="G32" s="8">
         <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
@@ -3031,7 +3034,7 @@
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F33" s="93"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="8">
         <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
@@ -3059,7 +3062,7 @@
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F34" s="93"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="8">
         <v>0.09</v>
       </c>
@@ -13367,483 +13370,483 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="88"/>
+    <col min="5" max="5" width="8.88671875" style="87"/>
     <col min="6" max="6" width="66.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>372</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="83" t="s">
         <v>338</v>
       </c>
       <c r="F2" t="s">
         <v>339</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="83" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" s="88">
+      <c r="A3" s="87">
         <v>-100000</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="87">
         <v>0.19999900000000001</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="89">
+      <c r="D3" s="88">
         <v>0.1512</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="M3" s="85" t="s">
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="M3" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="N3" s="86">
+      <c r="N3" s="85">
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88">
+    <row r="4" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="87">
         <v>0.2</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="87">
         <v>0.64999899999999999</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="89">
+      <c r="D4" s="88">
         <v>0.1134</v>
       </c>
-      <c r="E4" s="88"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="9"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="M4" s="85" t="s">
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="88"/>
+      <c r="M4" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="N4" s="86">
+      <c r="N4" s="85">
         <v>6.3E-3</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A5" s="88">
+      <c r="A5" s="87">
         <v>0.65</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B5" s="87">
         <v>0.79999900000000002</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="87" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="88">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="89"/>
-      <c r="M5" s="85" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+      <c r="M5" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="N5" s="86">
+      <c r="N5" s="85">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="P5" s="88">
+      <c r="P5" s="87">
         <v>8.5</v>
       </c>
-      <c r="Q5" s="88">
+      <c r="Q5" s="87">
         <v>6.5</v>
       </c>
-      <c r="R5" s="88">
+      <c r="R5" s="87">
         <v>5.5</v>
       </c>
-      <c r="S5" s="88">
+      <c r="S5" s="87">
         <v>4.25</v>
       </c>
-      <c r="T5" s="88">
+      <c r="T5" s="87">
         <v>3</v>
       </c>
-      <c r="U5" s="88">
+      <c r="U5" s="87">
         <v>2.5</v>
       </c>
-      <c r="V5" s="88">
+      <c r="V5" s="87">
         <v>2.25</v>
       </c>
-      <c r="W5" s="88">
+      <c r="W5" s="87">
         <v>2</v>
       </c>
-      <c r="X5" s="88">
+      <c r="X5" s="87">
         <v>1.75</v>
       </c>
-      <c r="Y5" s="88">
+      <c r="Y5" s="87">
         <v>1.5</v>
       </c>
-      <c r="Z5" s="88">
+      <c r="Z5" s="87">
         <v>1.25</v>
       </c>
-      <c r="AA5" s="88">
+      <c r="AA5" s="87">
         <v>0.8</v>
       </c>
-      <c r="AB5" s="88">
+      <c r="AB5" s="87">
         <v>0.65</v>
       </c>
-      <c r="AC5" s="88">
+      <c r="AC5" s="87">
         <v>0.2</v>
       </c>
-      <c r="AD5" s="88">
+      <c r="AD5" s="87">
         <v>-100000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88">
+    <row r="6" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87">
         <v>0.8</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B6" s="87">
         <v>1.2499990000000001</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="89">
+      <c r="D6" s="88">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="89"/>
-      <c r="M6" s="85" t="s">
+      <c r="E6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="M6" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="N6" s="86">
+      <c r="N6" s="85">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" s="88">
+      <c r="A7" s="87">
         <v>1.25</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="87">
         <v>1.4999990000000001</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="89">
+      <c r="D7" s="88">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="89"/>
-      <c r="M7" s="85" t="s">
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88"/>
+      <c r="M7" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="N7" s="86">
+      <c r="N7" s="85">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88">
+    <row r="8" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87">
         <v>1.5</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="87">
         <v>1.7499990000000001</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="89">
+      <c r="D8" s="88">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="89"/>
-      <c r="M8" s="85" t="s">
+      <c r="E8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="M8" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="N8" s="86">
+      <c r="N8" s="85">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A9" s="88">
+      <c r="A9" s="87">
         <v>1.75</v>
       </c>
-      <c r="B9" s="88">
+      <c r="B9" s="87">
         <v>1.9999990000000001</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>330</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="88">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="M9" s="85" t="s">
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="M9" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="N9" s="86">
+      <c r="N9" s="85">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88">
+    <row r="10" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="87">
         <v>2</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="87">
         <v>2.2499999000000002</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="87" t="s">
         <v>329</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="88">
         <v>2.4E-2</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="M10" s="85" t="s">
+      <c r="E10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="M10" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="N10" s="86">
+      <c r="N10" s="85">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="88">
+      <c r="A11" s="87">
         <v>2.25</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="87">
         <v>2.2499989999999999</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="87" t="s">
         <v>328</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="88">
         <v>0.02</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="M11" s="85" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="M11" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="N11" s="86">
+      <c r="N11" s="85">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88">
+    <row r="12" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="87">
         <v>2.5</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="87">
         <v>2.9999989999999999</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="87" t="s">
         <v>327</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="88">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="M12" s="85" t="s">
+      <c r="E12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="M12" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="N12" s="86">
+      <c r="N12" s="85">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A13" s="88">
+      <c r="A13" s="87">
         <v>3</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B13" s="87">
         <v>4.2499989999999999</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="88">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="M13" s="85" t="s">
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="M13" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="N13" s="86">
+      <c r="N13" s="85">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88">
+    <row r="14" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="87">
         <v>4.25</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="87">
         <v>5.4999989999999999</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="88">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="M14" s="85" t="s">
+      <c r="E14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="M14" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="N14" s="86">
+      <c r="N14" s="85">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="88">
+      <c r="A15" s="87">
         <v>5.5</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="87">
         <v>6.4999989999999999</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="87" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="88">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="M15" s="85" t="s">
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="M15" s="84" t="s">
         <v>354</v>
       </c>
-      <c r="N15" s="86">
+      <c r="N15" s="85">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="88">
+    <row r="16" spans="1:30" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="87">
         <v>6.5</v>
       </c>
-      <c r="B16" s="88">
+      <c r="B16" s="87">
         <v>8.4999990000000007</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="88">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="M16" s="85" t="s">
+      <c r="E16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="M16" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="N16" s="86">
+      <c r="N16" s="85">
         <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="88">
+      <c r="A17" s="87">
         <v>8.5</v>
       </c>
-      <c r="B17" s="88">
+      <c r="B17" s="87">
         <v>100000</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="88">
         <v>6.3E-3</v>
       </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="M17" s="85" t="s">
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="M17" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="N17" s="86">
+      <c r="N17" s="85">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="M18" s="85" t="s">
+    <row r="18" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="M18" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="N18" s="86">
+      <c r="N18" s="85">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M19" s="85" t="s">
+      <c r="M19" s="84" t="s">
         <v>357</v>
       </c>
-      <c r="N19" s="86">
+      <c r="N19" s="85">
         <v>3.5099999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="88">
+      <c r="B20" s="87">
         <f>VLOOKUP("Interest Coverage",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="M20" s="85" t="s">
+      <c r="E20" s="87"/>
+      <c r="M20" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="N20" s="86">
+      <c r="N20" s="85">
         <v>3.5099999999999999E-2</v>
       </c>
     </row>
@@ -13851,103 +13854,103 @@
       <c r="A21" t="s">
         <v>338</v>
       </c>
-      <c r="B21" s="66">
+      <c r="B21" s="65">
         <f>LOOKUP(B20,A3:A17,D3:D17)</f>
         <v>0.1512</v>
       </c>
-      <c r="M21" s="85" t="s">
+      <c r="M21" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="N21" s="86">
+      <c r="N21" s="85">
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="88"/>
-      <c r="M22" s="85" t="s">
+    <row r="22" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="87"/>
+      <c r="M22" s="84" t="s">
         <v>359</v>
       </c>
-      <c r="N22" s="86">
+      <c r="N22" s="85">
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M23" s="85" t="s">
+      <c r="M23" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="N23" s="86">
+      <c r="N23" s="85">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="88"/>
-      <c r="M24" s="85" t="s">
+    <row r="24" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="87"/>
+      <c r="M24" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="N24" s="86">
+      <c r="N24" s="85">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="88">
+      <c r="B25" s="87">
         <f>VLOOKUP("Interest Coverage",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="85" t="s">
+      <c r="M25" s="84" t="s">
         <v>363</v>
       </c>
-      <c r="N25" s="86">
+      <c r="N25" s="85">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="88"/>
-      <c r="M26" s="85" t="s">
+    <row r="26" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="87"/>
+      <c r="M26" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="N26" s="86">
+      <c r="N26" s="85">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M27" s="85" t="s">
+      <c r="M27" s="84" t="s">
         <v>366</v>
       </c>
-      <c r="N27" s="86">
+      <c r="N27" s="85">
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="88"/>
-      <c r="M28" s="85" t="s">
+    <row r="28" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="87"/>
+      <c r="M28" s="84" t="s">
         <v>365</v>
       </c>
-      <c r="N28" s="86">
+      <c r="N28" s="85">
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M29" s="85" t="s">
+      <c r="M29" s="84" t="s">
         <v>367</v>
       </c>
-      <c r="N29" s="86">
+      <c r="N29" s="85">
         <v>0.1134</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="88"/>
-      <c r="M30" s="85" t="s">
+    <row r="30" spans="1:14" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="87"/>
+      <c r="M30" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="N30" s="86">
+      <c r="N30" s="85">
         <v>0.1134</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M31" s="85" t="s">
+      <c r="M31" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="N31" s="86">
+      <c r="N31" s="85">
         <v>0.1512</v>
       </c>
     </row>
@@ -13955,7 +13958,7 @@
       <c r="M32" t="s">
         <v>369</v>
       </c>
-      <c r="N32" s="86">
+      <c r="N32" s="85">
         <v>0.1512</v>
       </c>
     </row>
@@ -13989,8 +13992,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14031,7 +14034,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f>2.66 * 0</f>
+        <f>2.66 * H12</f>
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -14050,7 +14053,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>2.66 * 0</f>
+        <f>2.66 * H12</f>
         <v>0</v>
       </c>
       <c r="C4" t="s">
@@ -14069,7 +14072,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="e">
-        <f>(H13* VLOOKUP("Stockholders' equity",'Balance Sheet (Annual)'!1:1048576,2,FALSE))/DCF!P11</f>
+        <f>(H13* VLOOKUP("Total stockholders' equity",'Balance Sheet (Annual)'!1:1048576,2,FALSE))/DCF!P11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C5" t="s">
@@ -14106,7 +14109,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="e">
+      <c r="A7" s="89" t="e">
         <f>((H15*VLOOKUP("EBITDA",'Income Statement'!A2:AE36,2,FALSE))-H6)/DCF!P11</f>
         <v>#DIV/0!</v>
       </c>
@@ -14119,7 +14122,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="69" t="s">
         <v>314</v>
       </c>
     </row>
@@ -14236,10 +14239,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -14262,26 +14265,26 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="O7" s="72" t="s">
+      <c r="O7" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="P7" s="73">
+      <c r="P7" s="72">
         <f ca="1">'Growth Rates'!B1</f>
         <v>2019</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="72">
         <f ca="1">'Growth Rates'!C1</f>
         <v>2018</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R7" s="72">
         <f ca="1">'Growth Rates'!D1</f>
         <v>2017</v>
       </c>
-      <c r="S7" s="73">
+      <c r="S7" s="72">
         <f ca="1">'Growth Rates'!E1</f>
         <v>2016</v>
       </c>
-      <c r="T7" s="74">
+      <c r="T7" s="73">
         <f ca="1">'Growth Rates'!F1</f>
         <v>2015</v>
       </c>
@@ -14297,27 +14300,27 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="O8" s="83">
+      <c r="O8" s="82">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="75">
+      <c r="P8" s="74">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="75">
+      <c r="Q8" s="74">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="74">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="75">
+      <c r="S8" s="74">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="75">
         <f>VLOOKUP("Dividends USD",'Key Ratios'!$1:$1048576,7,FALSE)</f>
         <v>0</v>
       </c>
@@ -14326,11 +14329,11 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N10" s="94" t="s">
+      <c r="N10" s="93" t="s">
         <v>318</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -14345,14 +14348,14 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="76">
         <f ca="1">P7</f>
         <v>2019</v>
       </c>
       <c r="O11" t="s">
         <v>319</v>
       </c>
-      <c r="P11" s="78">
+      <c r="P11" s="77">
         <f>IFERROR((P8/T8)^(1/5)-1,0)</f>
         <v>0</v>
       </c>
@@ -14394,13 +14397,13 @@
       <c r="L12" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="78" t="s">
         <v>126</v>
       </c>
       <c r="O12" t="s">
         <v>319</v>
       </c>
-      <c r="P12" s="78">
+      <c r="P12" s="77">
         <f>IFERROR((O8/S8)^(1/5)-1,0)</f>
         <v>0</v>
       </c>
@@ -14453,14 +14456,14 @@
         <f>B7</f>
         <v>0</v>
       </c>
-      <c r="N13" s="77">
+      <c r="N13" s="76">
         <f ca="1">P7</f>
         <v>2019</v>
       </c>
       <c r="O13" t="s">
         <v>320</v>
       </c>
-      <c r="P13" s="78">
+      <c r="P13" s="77">
         <f>IFERROR((P8/S8)^(1/4)-1,0)</f>
         <v>0</v>
       </c>
@@ -14513,14 +14516,14 @@
         <f>(HLOOKUP(B5,B12:K14,3)*(1+L13))/(B8)</f>
         <v>#N/A</v>
       </c>
-      <c r="N14" s="77">
+      <c r="N14" s="76">
         <f ca="1">P7</f>
         <v>2019</v>
       </c>
       <c r="O14" t="s">
         <v>321</v>
       </c>
-      <c r="P14" s="78">
+      <c r="P14" s="77">
         <f>IFERROR((P8/R8)^(1/3)-1,0)</f>
         <v>0</v>
       </c>
@@ -14573,11 +14576,11 @@
         <f>L14/(1+B8)^B5</f>
         <v>#N/A</v>
       </c>
-      <c r="N15" s="80"/>
-      <c r="O15" s="81" t="s">
+      <c r="N15" s="79"/>
+      <c r="O15" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="82" t="e">
+      <c r="P15" s="81" t="e">
         <f>AVERAGEIF(P11:P14,"&lt;&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
@@ -14605,10 +14608,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14619,32 +14622,32 @@
     <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="D1" s="97" t="s">
+      <c r="B1" s="96"/>
+      <c r="D1" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="97"/>
+      <c r="E1" s="96"/>
       <c r="I1" t="s">
         <v>61</v>
       </c>
       <c r="J1" s="23">
-        <f>VLOOKUP("Tax Rate %", 'Key Ratios'!1:1048576,2,FALSE)/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+        <f>IF(VLOOKUP("Tax Rate %", 'Key Ratios'!1:1048576,2,FALSE) &lt; 90,VLOOKUP("Tax Rate %", 'Key Ratios'!1:1048576,2,FALSE)/100, VLOOKUP("Tax Rate %", 'Key Ratios'!1:1048576,3,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="D3" s="97" t="s">
+      <c r="B3" s="96"/>
+      <c r="D3" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="97"/>
+      <c r="E3" s="96"/>
       <c r="I3" t="s">
         <v>63</v>
       </c>
@@ -14653,20 +14656,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="22">
         <f>VLOOKUP("Net income available to common shareholders",'Income Statement'!A2:AE36,2,FALSE)</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
       </c>
       <c r="E4">
         <f>B4</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="I4" t="s">
         <v>64</v>
@@ -14676,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -14699,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -14715,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -14731,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -14749,46 +14752,49 @@
       <c r="I8" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="J8" s="62">
-        <f>MIN(B9,B16,B24,B34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="97">
+        <f t="array" ref="J8">MIN(IF(B41:B44&gt;0,B41:B44))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="25">
         <f>SUM(B4:B8)</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="24">
         <f>SUM(E4:E8)</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="I9" s="61" t="s">
         <v>308</v>
       </c>
       <c r="J9" s="62">
-        <f>MIN(E9,E18,E24,E36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
+        <f t="array" ref="J9">MIN(IF(E41:E44&gt;0,E41:E44))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="D11" s="97" t="s">
+      <c r="B11" s="96"/>
+      <c r="D11" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="97"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="96"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -14804,7 +14810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -14820,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -14836,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -14852,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>53</v>
       </c>
@@ -14888,14 +14894,14 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="D20" s="97" t="s">
+      <c r="B20" s="96"/>
+      <c r="D20" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="97"/>
+      <c r="E20" s="96"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -14963,14 +14969,14 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="D26" s="97" t="s">
+      <c r="B26" s="96"/>
+      <c r="D26" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="97"/>
+      <c r="E26" s="96"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -15009,7 +15015,7 @@
         <v>71</v>
       </c>
       <c r="B29" s="12">
-        <f>_xlfn.IFNA(VLOOKUP("Stock Compensation",'Cash Flow Statement'!1:1048576,2,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP("Stock Based Compensation",'Cash Flow Statement'!1:1048576,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D29" t="s">
@@ -15119,6 +15125,70 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="21">
+        <f>B9</f>
+        <v>-1000</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41">
+        <f>E9</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="21">
+        <f>B16</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="21">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="21">
+        <f>B24</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43">
+        <f>E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="21">
+        <f>B34</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="21">
+        <f>E36</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A20:B20"/>
@@ -15161,39 +15231,39 @@
         <f ca="1">YEAR(TODAY()) - 1</f>
         <v>2019</v>
       </c>
-      <c r="C1" s="69">
+      <c r="C1" s="68">
         <f ca="1">YEAR(TODAY()) - U29</f>
         <v>2018</v>
       </c>
-      <c r="D1" s="69">
+      <c r="D1" s="68">
         <f t="shared" ref="D1:K1" ca="1" si="0">YEAR(TODAY()) - V29</f>
         <v>2017</v>
       </c>
-      <c r="E1" s="69">
+      <c r="E1" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>2016</v>
       </c>
-      <c r="F1" s="69">
+      <c r="F1" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>2015</v>
       </c>
-      <c r="G1" s="69">
+      <c r="G1" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>2014</v>
       </c>
-      <c r="H1" s="69">
+      <c r="H1" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>2013</v>
       </c>
-      <c r="I1" s="69">
+      <c r="I1" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>2012</v>
       </c>
-      <c r="J1" s="69">
+      <c r="J1" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>2011</v>
       </c>
-      <c r="K1" s="69">
+      <c r="K1" s="68">
         <f t="shared" ca="1" si="0"/>
         <v>2010</v>
       </c>
@@ -15982,7 +16052,7 @@
   <dimension ref="A2:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16065,52 +16135,58 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="87">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -16128,7 +16204,7 @@
   <dimension ref="A3:A47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Desktop\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShyamPC\Documents\GitHub\auto-valuation-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B3429-B4E2-4B20-A48C-AFCA53FAC7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62242CC7-C68D-4377-92F1-9EE023753C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="6" r:id="rId1"/>
@@ -99,8 +99,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Multiples will available
-in a later update.</t>
+Will update later to use different multiples depending on industry</t>
         </r>
       </text>
     </comment>
@@ -121,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="377">
   <si>
     <t>EPS</t>
   </si>
@@ -1808,6 +1807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="10" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1829,7 +1829,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="10" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -2126,7 +2125,7 @@
   </sheetPr>
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
@@ -2758,15 +2757,15 @@
         <v>116</v>
       </c>
       <c r="G24" s="50"/>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
@@ -2783,15 +2782,15 @@
       <c r="D25" s="46">
         <v>0.8</v>
       </c>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
@@ -2808,7 +2807,7 @@
       <c r="D26" s="46">
         <v>0.2</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="93" t="s">
         <v>123</v>
       </c>
       <c r="G26" s="51" t="e">
@@ -2852,7 +2851,7 @@
       <c r="D27" s="46">
         <v>0</v>
       </c>
-      <c r="F27" s="92"/>
+      <c r="F27" s="93"/>
       <c r="G27" s="8">
         <v>5.5E-2</v>
       </c>
@@ -2895,7 +2894,7 @@
         <f>SUM(D25:D27)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="92"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="8">
         <v>0.06</v>
       </c>
@@ -2922,7 +2921,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="92"/>
+      <c r="F29" s="93"/>
       <c r="G29" s="8">
         <f>G28+0.005</f>
         <v>6.5000000000000002E-2</v>
@@ -2950,7 +2949,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="92"/>
+      <c r="F30" s="93"/>
       <c r="G30" s="8">
         <f t="shared" ref="G30:G33" si="3">G29+0.005</f>
         <v>7.0000000000000007E-2</v>
@@ -2978,7 +2977,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="92"/>
+      <c r="F31" s="93"/>
       <c r="G31" s="8">
         <f t="shared" si="3"/>
         <v>7.5000000000000011E-2</v>
@@ -3006,7 +3005,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="92"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="8">
         <f t="shared" si="3"/>
         <v>8.0000000000000016E-2</v>
@@ -3034,7 +3033,7 @@
       </c>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F33" s="92"/>
+      <c r="F33" s="93"/>
       <c r="G33" s="8">
         <f t="shared" si="3"/>
         <v>8.500000000000002E-2</v>
@@ -3062,7 +3061,7 @@
       </c>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F34" s="92"/>
+      <c r="F34" s="93"/>
       <c r="G34" s="8">
         <v>0.09</v>
       </c>
@@ -13993,7 +13992,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14270,23 +14269,23 @@
       </c>
       <c r="P7" s="72">
         <f ca="1">'Growth Rates'!B1</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="Q7" s="72">
         <f ca="1">'Growth Rates'!C1</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="R7" s="72">
         <f ca="1">'Growth Rates'!D1</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S7" s="72">
         <f ca="1">'Growth Rates'!E1</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T7" s="73">
         <f ca="1">'Growth Rates'!F1</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14329,11 +14328,11 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="N10" s="93" t="s">
+      <c r="N10" s="94" t="s">
         <v>318</v>
       </c>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -14350,7 +14349,7 @@
       </c>
       <c r="N11" s="76">
         <f ca="1">P7</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O11" t="s">
         <v>319</v>
@@ -14458,7 +14457,7 @@
       </c>
       <c r="N13" s="76">
         <f ca="1">P7</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O13" t="s">
         <v>320</v>
@@ -14518,7 +14517,7 @@
       </c>
       <c r="N14" s="76">
         <f ca="1">P7</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O14" t="s">
         <v>321</v>
@@ -14610,8 +14609,8 @@
   </sheetPr>
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14623,14 +14622,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="96"/>
+      <c r="E1" s="97"/>
       <c r="I1" t="s">
         <v>61</v>
       </c>
@@ -14640,14 +14639,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="D3" s="96" t="s">
+      <c r="B3" s="97"/>
+      <c r="D3" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="96"/>
+      <c r="E3" s="97"/>
       <c r="I3" t="s">
         <v>63</v>
       </c>
@@ -14752,7 +14751,7 @@
       <c r="I8" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="90">
         <f t="array" ref="J8">MIN(IF(B41:B44&gt;0,B41:B44))</f>
         <v>0</v>
       </c>
@@ -14785,14 +14784,14 @@
     </row>
     <row r="10" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="D11" s="96" t="s">
+      <c r="B11" s="97"/>
+      <c r="D11" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -14894,14 +14893,14 @@
     </row>
     <row r="19" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="D20" s="96" t="s">
+      <c r="B20" s="97"/>
+      <c r="D20" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="96"/>
+      <c r="E20" s="97"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -14969,14 +14968,14 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="D26" s="96" t="s">
+      <c r="B26" s="97"/>
+      <c r="D26" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="96"/>
+      <c r="E26" s="97"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -15215,7 +15214,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15229,43 +15228,43 @@
       </c>
       <c r="B1" s="16">
         <f ca="1">YEAR(TODAY()) - 1</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C1" s="68">
         <f ca="1">YEAR(TODAY()) - U29</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D1" s="68">
         <f t="shared" ref="D1:K1" ca="1" si="0">YEAR(TODAY()) - V29</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F1" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G1" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="H1" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="I1" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="J1" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="K1" s="68">
         <f t="shared" ca="1" si="0"/>
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -15802,8 +15801,11 @@
         <v>306</v>
       </c>
       <c r="B18" s="8">
-        <f>MIN(M12:M14)</f>
-        <v>0</v>
+        <f t="array" ref="B18">MIN(IF(M12:M14&gt;0,M12:M14))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -15852,7 +15854,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15972,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="12">
-        <f>_xlfn.IFNA(VLOOKUP(B12,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
+        <f>_xlfn.IFNA(VLOOKUP(A12,'Balance Sheet (Annual)'!1:1048576,3,FALSE),0)</f>
         <v>0</v>
       </c>
     </row>
